--- a/REGULAR/OJT/MENDOZA, PRESCILA.xlsx
+++ b/REGULAR/OJT/MENDOZA, PRESCILA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24463B0A-9E6C-4C7D-83CA-97D66738A251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="576">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1768,7 +1767,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2687,7 +2686,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2730,7 +2729,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2794,7 +2793,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2854,7 +2853,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2920,7 +2919,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2983,7 +2982,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3081,7 +3080,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3140,7 +3139,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3205,7 +3204,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3248,7 +3247,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3323,7 +3322,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3509,7 +3508,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3575,7 +3574,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3633,7 +3632,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3699,7 +3698,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3755,7 +3754,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3830,7 +3829,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3873,7 +3872,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3939,7 +3938,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3995,7 +3994,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4093,7 +4092,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4156,7 +4155,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4222,25 +4221,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K738" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K738" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4252,13 +4251,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4267,14 +4266,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4578,7 +4577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4588,7 +4587,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4596,34 +4595,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:L738"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3888" topLeftCell="A687" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A687" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="I695" sqref="I695"/>
+      <selection pane="bottomLeft" activeCell="B700" sqref="B700"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4644,7 +4643,7 @@
       <c r="J2" s="67"/>
       <c r="K2" s="68"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4664,7 +4663,7 @@
       <c r="J3" s="69"/>
       <c r="K3" s="70"/>
     </row>
-    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4686,7 +4685,7 @@
       <c r="J4" s="71"/>
       <c r="K4" s="72"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4694,7 +4693,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4707,7 +4706,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="65" t="s">
@@ -4724,7 +4723,7 @@
       <c r="J7" s="65"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4759,7 +4758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4768,7 +4767,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>30.162000000000035</v>
+        <v>31.412000000000035</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4778,12 +4777,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>36.353000000000009</v>
+        <v>36.603000000000009</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="s">
         <v>43</v>
       </c>
@@ -4805,7 +4804,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="60" t="s">
         <v>61</v>
       </c>
@@ -4827,7 +4826,7 @@
       <c r="K11" s="58"/>
       <c r="L11" s="57"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="53">
         <v>35916</v>
       </c>
@@ -4847,7 +4846,7 @@
       <c r="J12" s="56"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="20" t="s">
         <v>60</v>
@@ -4867,7 +4866,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>35947</v>
       </c>
@@ -4893,7 +4892,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>45</v>
@@ -4913,7 +4912,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f>EDATE(A14,1)</f>
         <v>35977</v>
@@ -4940,7 +4939,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>47</v>
@@ -4960,7 +4959,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f>EDATE(A16,1)</f>
         <v>36008</v>
@@ -4987,7 +4986,7 @@
         <v>36076</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>49</v>
@@ -5007,7 +5006,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f>EDATE(A18,1)</f>
         <v>36039</v>
@@ -5032,7 +5031,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f t="shared" ref="A21" si="0">EDATE(A20,1)</f>
         <v>36069</v>
@@ -5059,7 +5058,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>53</v>
@@ -5079,7 +5078,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <f>EDATE(A21,1)</f>
         <v>36100</v>
@@ -5106,7 +5105,7 @@
         <v>36049</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>54</v>
@@ -5126,7 +5125,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f>EDATE(A23,1)</f>
         <v>36130</v>
@@ -5153,7 +5152,7 @@
         <v>35807</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>55</v>
@@ -5175,7 +5174,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>57</v>
@@ -5197,7 +5196,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>59</v>
@@ -5217,7 +5216,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
         <v>65</v>
       </c>
@@ -5235,7 +5234,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>36161</v>
       </c>
@@ -5261,7 +5260,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>68</v>
@@ -5281,7 +5280,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f>EDATE(A30,1)</f>
         <v>36192</v>
@@ -5306,7 +5305,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f t="shared" ref="A33:A45" si="1">EDATE(A32,1)</f>
         <v>36220</v>
@@ -5333,7 +5332,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>70</v>
@@ -5355,7 +5354,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>73</v>
@@ -5375,7 +5374,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f>EDATE(A33,1)</f>
         <v>36251</v>
@@ -5400,7 +5399,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f t="shared" si="1"/>
         <v>36281</v>
@@ -5425,7 +5424,7 @@
         <v>36224</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>76</v>
@@ -5445,7 +5444,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>75</v>
@@ -5467,7 +5466,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f>EDATE(A37,1)</f>
         <v>36312</v>
@@ -5492,7 +5491,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" si="1"/>
         <v>36342</v>
@@ -5517,7 +5516,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f t="shared" si="1"/>
         <v>36373</v>
@@ -5542,7 +5541,7 @@
         <v>36411</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>74</v>
@@ -5564,7 +5563,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f>EDATE(A42,1)</f>
         <v>36404</v>
@@ -5589,7 +5588,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" si="1"/>
         <v>36434</v>
@@ -5614,7 +5613,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>82</v>
@@ -5636,7 +5635,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f>EDATE(A45,1)</f>
         <v>36465</v>
@@ -5661,7 +5660,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>75</v>
@@ -5683,7 +5682,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f>EDATE(A47,1)</f>
         <v>36495</v>
@@ -5710,7 +5709,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>86</v>
@@ -5730,7 +5729,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
         <v>85</v>
       </c>
@@ -5748,7 +5747,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>36526</v>
       </c>
@@ -5770,7 +5769,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>87</v>
@@ -5792,7 +5791,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f>EDATE(A52,1)</f>
         <v>36557</v>
@@ -5817,7 +5816,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>90</v>
@@ -5839,7 +5838,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f>EDATE(A54,1)</f>
         <v>36586</v>
@@ -5862,7 +5861,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>44</v>
@@ -5884,7 +5883,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>51</v>
@@ -5908,7 +5907,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>82</v>
@@ -5928,7 +5927,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f>EDATE(A56,1)</f>
         <v>36617</v>
@@ -5953,7 +5952,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f t="shared" ref="A61:A70" si="2">EDATE(A60,1)</f>
         <v>36647</v>
@@ -5978,7 +5977,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>96</v>
@@ -6000,7 +5999,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>36678</v>
@@ -6025,7 +6024,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f t="shared" si="2"/>
         <v>36708</v>
@@ -6050,7 +6049,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>76</v>
@@ -6070,7 +6069,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>69</v>
@@ -6092,7 +6091,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f>EDATE(A64,1)</f>
         <v>36739</v>
@@ -6113,7 +6112,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f t="shared" si="2"/>
         <v>36770</v>
@@ -6134,7 +6133,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f t="shared" si="2"/>
         <v>36800</v>
@@ -6159,7 +6158,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f t="shared" si="2"/>
         <v>36831</v>
@@ -6184,7 +6183,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>70</v>
@@ -6206,7 +6205,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>101</v>
@@ -6228,7 +6227,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f>EDATE(A70,1)</f>
         <v>36861</v>
@@ -6253,7 +6252,7 @@
         <v>36537</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>55</v>
@@ -6275,7 +6274,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>87</v>
@@ -6297,7 +6296,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
         <v>104</v>
       </c>
@@ -6315,7 +6314,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44197</v>
       </c>
@@ -6339,7 +6338,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>76</v>
@@ -6359,7 +6358,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>106</v>
@@ -6381,7 +6380,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f>EDATE(A77,1)</f>
         <v>44228</v>
@@ -6406,7 +6405,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>73</v>
@@ -6428,7 +6427,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f>EDATE(A80,1)</f>
         <v>44256</v>
@@ -6453,7 +6452,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f t="shared" ref="A83:A94" si="3">EDATE(A82,1)</f>
         <v>44287</v>
@@ -6478,7 +6477,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>112</v>
@@ -6500,7 +6499,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
@@ -6518,7 +6517,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f>EDATE(A83,1)</f>
         <v>44317</v>
@@ -6543,7 +6542,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13">
@@ -6561,7 +6560,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f>EDATE(A86,1)</f>
         <v>44348</v>
@@ -6586,7 +6585,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f t="shared" si="3"/>
         <v>44378</v>
@@ -6611,7 +6610,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" si="3"/>
         <v>44409</v>
@@ -6636,7 +6635,7 @@
         <v>37142</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>117</v>
@@ -6658,7 +6657,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f>EDATE(A90,1)</f>
         <v>44440</v>
@@ -6679,7 +6678,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f t="shared" si="3"/>
         <v>44470</v>
@@ -6704,7 +6703,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f t="shared" si="3"/>
         <v>44501</v>
@@ -6729,7 +6728,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>76</v>
@@ -6749,7 +6748,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>120</v>
@@ -6771,7 +6770,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f>EDATE(A94,1)</f>
         <v>44531</v>
@@ -6796,7 +6795,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="48" t="s">
         <v>123</v>
       </c>
@@ -6814,7 +6813,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>37257</v>
       </c>
@@ -6836,7 +6835,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>44</v>
@@ -6858,7 +6857,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13">
@@ -6876,7 +6875,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f>EDATE(A99,1)</f>
         <v>37288</v>
@@ -6901,7 +6900,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>127</v>
@@ -6923,7 +6922,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f>EDATE(A102,1)</f>
         <v>37316</v>
@@ -6948,7 +6947,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>44</v>
@@ -6970,7 +6969,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>130</v>
@@ -6992,7 +6991,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f>EDATE(A104,1)</f>
         <v>37347</v>
@@ -7017,7 +7016,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>44</v>
@@ -7039,7 +7038,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>116</v>
@@ -7061,7 +7060,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f>EDATE(A107,1)</f>
         <v>37377</v>
@@ -7086,7 +7085,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>44</v>
@@ -7108,7 +7107,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>90</v>
@@ -7130,7 +7129,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f>EDATE(A110,1)</f>
         <v>37408</v>
@@ -7153,7 +7152,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>78</v>
@@ -7175,7 +7174,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>37438</v>
@@ -7200,7 +7199,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f t="shared" ref="A116" si="4">EDATE(A115,1)</f>
         <v>37469</v>
@@ -7225,7 +7224,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>51</v>
@@ -7247,7 +7246,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>139</v>
@@ -7269,7 +7268,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f>EDATE(A116,1)</f>
         <v>37500</v>
@@ -7294,7 +7293,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13">
@@ -7312,7 +7311,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f>EDATE(A119,1)</f>
         <v>37530</v>
@@ -7337,7 +7336,7 @@
         <v>37356</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13">
@@ -7355,7 +7354,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f>EDATE(A121,1)</f>
         <v>37561</v>
@@ -7380,7 +7379,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>44</v>
@@ -7402,7 +7401,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>87</v>
@@ -7424,7 +7423,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f>EDATE(A123,1)</f>
         <v>37591</v>
@@ -7449,7 +7448,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>144</v>
@@ -7471,7 +7470,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="48" t="s">
         <v>145</v>
       </c>
@@ -7489,7 +7488,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>37622</v>
       </c>
@@ -7511,7 +7510,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>147</v>
@@ -7533,7 +7532,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f>EDATE(A129,1)</f>
         <v>37653</v>
@@ -7558,7 +7557,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" ref="A132:A149" si="5">EDATE(A131,1)</f>
         <v>37681</v>
@@ -7583,7 +7582,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>44</v>
@@ -7605,7 +7604,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>151</v>
@@ -7627,7 +7626,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f>EDATE(A132,1)</f>
         <v>37712</v>
@@ -7652,7 +7651,7 @@
         <v>37868</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>152</v>
@@ -7674,7 +7673,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f>EDATE(A135,1)</f>
         <v>37742</v>
@@ -7699,7 +7698,7 @@
         <v>37777</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>44</v>
@@ -7721,7 +7720,7 @@
         <v>37960</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>76</v>
@@ -7741,7 +7740,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13">
@@ -7759,7 +7758,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f>EDATE(A137,1)</f>
         <v>37773</v>
@@ -7784,7 +7783,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>44</v>
@@ -7806,7 +7805,7 @@
         <v>37870</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>155</v>
@@ -7828,7 +7827,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f>EDATE(A141,1)</f>
         <v>37803</v>
@@ -7853,7 +7852,7 @@
         <v>37659</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>156</v>
@@ -7875,7 +7874,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f>EDATE(A144,1)</f>
         <v>37834</v>
@@ -7900,7 +7899,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13">
@@ -7918,7 +7917,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f>EDATE(A146,1)</f>
         <v>37865</v>
@@ -7943,7 +7942,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f t="shared" si="5"/>
         <v>37895</v>
@@ -7968,7 +7967,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>159</v>
@@ -7990,7 +7989,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f>EDATE(A149,1)</f>
         <v>37926</v>
@@ -8015,7 +8014,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>161</v>
@@ -8037,7 +8036,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <f>EDATE(A151,1)</f>
         <v>37956</v>
@@ -8062,7 +8061,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>102</v>
@@ -8084,7 +8083,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>164</v>
@@ -8106,7 +8105,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>165</v>
@@ -8126,7 +8125,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="48" t="s">
         <v>166</v>
       </c>
@@ -8144,7 +8143,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>37987</v>
       </c>
@@ -8166,7 +8165,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>44</v>
@@ -8188,7 +8187,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>76</v>
@@ -8208,7 +8207,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>167</v>
@@ -8230,7 +8229,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f>EDATE(A158,1)</f>
         <v>38018</v>
@@ -8255,7 +8254,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <f t="shared" ref="A163" si="6">EDATE(A162,1)</f>
         <v>38047</v>
@@ -8280,7 +8279,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>44</v>
@@ -8302,7 +8301,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>44</v>
@@ -8324,7 +8323,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>175</v>
@@ -8346,7 +8345,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <f>EDATE(A163,1)</f>
         <v>38078</v>
@@ -8371,7 +8370,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>178</v>
@@ -8393,7 +8392,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f>EDATE(A167,1)</f>
         <v>38108</v>
@@ -8418,7 +8417,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>180</v>
@@ -8440,7 +8439,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f>EDATE(A169,1)</f>
         <v>38139</v>
@@ -8465,7 +8464,7 @@
         <v>38174</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>44</v>
@@ -8487,7 +8486,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>44</v>
@@ -8509,7 +8508,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>183</v>
@@ -8531,7 +8530,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <f>EDATE(A171,1)</f>
         <v>38169</v>
@@ -8556,7 +8555,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>44</v>
@@ -8578,7 +8577,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>186</v>
@@ -8600,7 +8599,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f>EDATE(A175,1)</f>
         <v>38200</v>
@@ -8625,7 +8624,7 @@
         <v>38238</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>44</v>
@@ -8647,7 +8646,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>53</v>
@@ -8669,7 +8668,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f>EDATE(A178,1)</f>
         <v>38231</v>
@@ -8694,7 +8693,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>189</v>
@@ -8716,7 +8715,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f>EDATE(A181,1)</f>
         <v>38261</v>
@@ -8741,7 +8740,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>44</v>
@@ -8763,7 +8762,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>191</v>
@@ -8785,7 +8784,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f>EDATE(A183,1)</f>
         <v>38292</v>
@@ -8810,7 +8809,7 @@
         <v>38057</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>44</v>
@@ -8832,7 +8831,7 @@
         <v>37998</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>193</v>
@@ -8854,7 +8853,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f>EDATE(A186,1)</f>
         <v>38322</v>
@@ -8879,7 +8878,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>195</v>
@@ -8901,7 +8900,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="48" t="s">
         <v>196</v>
       </c>
@@ -8919,7 +8918,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>38353</v>
       </c>
@@ -8943,7 +8942,7 @@
         <v>38412</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>76</v>
@@ -8963,7 +8962,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>44</v>
@@ -8985,7 +8984,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>70</v>
@@ -9007,7 +9006,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>200</v>
@@ -9029,7 +9028,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f>EDATE(A192,1)</f>
         <v>38384</v>
@@ -9054,7 +9053,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>44</v>
@@ -9076,7 +9075,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>206</v>
@@ -9098,7 +9097,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f>EDATE(A197,1)</f>
         <v>38412</v>
@@ -9121,7 +9120,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>44</v>
@@ -9143,7 +9142,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>76</v>
@@ -9163,7 +9162,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>212</v>
@@ -9185,7 +9184,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>51</v>
@@ -9207,7 +9206,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f>EDATE(A200,1)</f>
         <v>38443</v>
@@ -9232,7 +9231,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>209</v>
@@ -9254,7 +9253,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f>EDATE(A205,1)</f>
         <v>38473</v>
@@ -9279,7 +9278,7 @@
         <v>38600</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>51</v>
@@ -9301,7 +9300,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>51</v>
@@ -9323,7 +9322,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>213</v>
@@ -9345,7 +9344,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f>EDATE(A207,1)</f>
         <v>38504</v>
@@ -9370,7 +9369,7 @@
         <v>38539</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>102</v>
@@ -9392,7 +9391,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>70</v>
@@ -9414,7 +9413,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>215</v>
@@ -9436,7 +9435,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f>EDATE(A211,1)</f>
         <v>38534</v>
@@ -9461,7 +9460,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>218</v>
@@ -9483,7 +9482,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <f>EDATE(A215,1)</f>
         <v>38565</v>
@@ -9508,7 +9507,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>220</v>
@@ -9530,7 +9529,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <f>EDATE(A217,1)</f>
         <v>38596</v>
@@ -9555,7 +9554,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f t="shared" ref="A220" si="7">EDATE(A219,1)</f>
         <v>38626</v>
@@ -9580,7 +9579,7 @@
         <v>38696</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>44</v>
@@ -9602,7 +9601,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>223</v>
@@ -9622,7 +9621,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f>EDATE(A220,1)</f>
         <v>38657</v>
@@ -9647,7 +9646,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>225</v>
@@ -9669,7 +9668,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <f>EDATE(A223,1)</f>
         <v>38687</v>
@@ -9694,7 +9693,7 @@
         <v>38698</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>164</v>
@@ -9716,7 +9715,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>227</v>
@@ -9738,7 +9737,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="48" t="s">
         <v>228</v>
       </c>
@@ -9756,7 +9755,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>38718</v>
       </c>
@@ -9780,7 +9779,7 @@
         <v>38961</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>76</v>
@@ -9800,7 +9799,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>44</v>
@@ -9822,7 +9821,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>76</v>
@@ -9842,7 +9841,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>229</v>
@@ -9864,7 +9863,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <f>EDATE(A229,1)</f>
         <v>38749</v>
@@ -9889,7 +9888,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>234</v>
@@ -9911,7 +9910,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f>EDATE(A234,1)</f>
         <v>38777</v>
@@ -9936,7 +9935,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>76</v>
@@ -9956,7 +9955,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>44</v>
@@ -9978,7 +9977,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>238</v>
@@ -10000,7 +9999,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f>EDATE(A236,1)</f>
         <v>38808</v>
@@ -10025,7 +10024,7 @@
         <v>38902</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20"/>
       <c r="C241" s="13">
@@ -10043,7 +10042,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>44</v>
@@ -10065,7 +10064,7 @@
         <v>38812</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>44</v>
@@ -10087,7 +10086,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>44</v>
@@ -10109,7 +10108,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>239</v>
@@ -10129,7 +10128,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f>EDATE(A240,1)</f>
         <v>38838</v>
@@ -10154,7 +10153,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <f t="shared" ref="A247:A258" si="8">EDATE(A246,1)</f>
         <v>38869</v>
@@ -10179,7 +10178,7 @@
         <v>38723</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>44</v>
@@ -10201,7 +10200,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>244</v>
@@ -10223,7 +10222,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f>EDATE(A247,1)</f>
         <v>38899</v>
@@ -10248,7 +10247,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>247</v>
@@ -10270,7 +10269,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f>EDATE(A250,1)</f>
         <v>38930</v>
@@ -10295,7 +10294,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>44</v>
@@ -10317,7 +10316,7 @@
         <v>38877</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>44</v>
@@ -10339,7 +10338,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>250</v>
@@ -10361,7 +10360,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f>EDATE(A252,1)</f>
         <v>38961</v>
@@ -10386,7 +10385,7 @@
       <c r="J256" s="12"/>
       <c r="K256" s="15"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f t="shared" si="8"/>
         <v>38991</v>
@@ -10411,7 +10410,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <f t="shared" si="8"/>
         <v>39022</v>
@@ -10436,7 +10435,7 @@
         <v>38940</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>254</v>
@@ -10458,7 +10457,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f>EDATE(A258,1)</f>
         <v>39052</v>
@@ -10483,7 +10482,7 @@
         <v>39033</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>44</v>
@@ -10505,7 +10504,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>256</v>
@@ -10527,7 +10526,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="48" t="s">
         <v>257</v>
       </c>
@@ -10545,7 +10544,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>39083</v>
       </c>
@@ -10569,7 +10568,7 @@
         <v>39114</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>76</v>
@@ -10589,7 +10588,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>76</v>
@@ -10609,7 +10608,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>70</v>
@@ -10631,7 +10630,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>261</v>
@@ -10653,7 +10652,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>51</v>
@@ -10675,7 +10674,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>264</v>
@@ -10697,7 +10696,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f>EDATE(A264,1)</f>
         <v>39114</v>
@@ -10722,7 +10721,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f t="shared" ref="A272:A284" si="9">EDATE(A271,1)</f>
         <v>39142</v>
@@ -10747,7 +10746,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>267</v>
@@ -10769,7 +10768,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f>EDATE(A272,1)</f>
         <v>39173</v>
@@ -10794,7 +10793,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>270</v>
@@ -10816,7 +10815,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <f>EDATE(A274,1)</f>
         <v>39203</v>
@@ -10841,7 +10840,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f t="shared" si="9"/>
         <v>39234</v>
@@ -10866,7 +10865,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20"/>
       <c r="C278" s="13">
@@ -10884,7 +10883,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <f>EDATE(A277,1)</f>
         <v>39264</v>
@@ -10905,7 +10904,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <f t="shared" si="9"/>
         <v>39295</v>
@@ -10926,7 +10925,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f t="shared" si="9"/>
         <v>39326</v>
@@ -10947,7 +10946,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f t="shared" si="9"/>
         <v>39356</v>
@@ -10968,7 +10967,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f t="shared" si="9"/>
         <v>39387</v>
@@ -10989,7 +10988,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f t="shared" si="9"/>
         <v>39417</v>
@@ -11014,7 +11013,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="48" t="s">
         <v>273</v>
       </c>
@@ -11032,7 +11031,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>39448</v>
       </c>
@@ -11054,7 +11053,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>44</v>
@@ -11074,7 +11073,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>276</v>
@@ -11096,7 +11095,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f>EDATE(A286,1)</f>
         <v>39479</v>
@@ -11121,7 +11120,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <f t="shared" ref="A290:A312" si="10">EDATE(A289,1)</f>
         <v>39508</v>
@@ -11146,7 +11145,7 @@
         <v>39755</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>44</v>
@@ -11168,7 +11167,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>76</v>
@@ -11188,7 +11187,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>280</v>
@@ -11210,7 +11209,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f>EDATE(A290,1)</f>
         <v>39539</v>
@@ -11235,7 +11234,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>282</v>
@@ -11257,7 +11256,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <f>EDATE(A294,1)</f>
         <v>39569</v>
@@ -11282,7 +11281,7 @@
         <v>39665</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>44</v>
@@ -11304,7 +11303,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>283</v>
@@ -11326,7 +11325,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f>EDATE(A296,1)</f>
         <v>39600</v>
@@ -11351,7 +11350,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>164</v>
@@ -11373,7 +11372,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>287</v>
@@ -11395,7 +11394,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f>EDATE(A299,1)</f>
         <v>39630</v>
@@ -11420,7 +11419,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>180</v>
@@ -11442,7 +11441,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f>EDATE(A302,1)</f>
         <v>39661</v>
@@ -11467,7 +11466,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>44</v>
@@ -11489,7 +11488,7 @@
         <v>39456</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>290</v>
@@ -11511,7 +11510,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f>EDATE(A304,1)</f>
         <v>39692</v>
@@ -11536,7 +11535,7 @@
         <v>39791</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>44</v>
@@ -11558,7 +11557,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>44</v>
@@ -11580,7 +11579,7 @@
         <v>39670</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>292</v>
@@ -11602,7 +11601,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <f>EDATE(A307,1)</f>
         <v>39722</v>
@@ -11627,7 +11626,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f t="shared" si="10"/>
         <v>39753</v>
@@ -11652,7 +11651,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>51</v>
@@ -11674,7 +11673,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>296</v>
@@ -11696,7 +11695,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f>EDATE(A312,1)</f>
         <v>39783</v>
@@ -11719,7 +11718,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>298</v>
@@ -11741,7 +11740,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="48" t="s">
         <v>299</v>
       </c>
@@ -11759,7 +11758,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>39814</v>
       </c>
@@ -11781,7 +11780,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>44</v>
@@ -11803,7 +11802,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>302</v>
@@ -11825,7 +11824,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <f>EDATE(A318,1)</f>
         <v>39845</v>
@@ -11850,7 +11849,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f t="shared" ref="A322" si="11">EDATE(A321,1)</f>
         <v>39873</v>
@@ -11875,7 +11874,7 @@
         <v>40150</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>76</v>
@@ -11895,7 +11894,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>305</v>
@@ -11917,7 +11916,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f>EDATE(A322,1)</f>
         <v>39904</v>
@@ -11942,7 +11941,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>44</v>
@@ -11964,7 +11963,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>308</v>
@@ -11986,7 +11985,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <f>EDATE(A325,1)</f>
         <v>39934</v>
@@ -12011,7 +12010,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>310</v>
@@ -12033,7 +12032,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <f>EDATE(A328,1)</f>
         <v>39965</v>
@@ -12058,7 +12057,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>44</v>
@@ -12080,7 +12079,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>76</v>
@@ -12100,7 +12099,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>44</v>
@@ -12122,7 +12121,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>315</v>
@@ -12144,7 +12143,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f>EDATE(A330,1)</f>
         <v>39995</v>
@@ -12169,7 +12168,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>317</v>
@@ -12191,7 +12190,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f>EDATE(A335,1)</f>
         <v>40026</v>
@@ -12216,7 +12215,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>44</v>
@@ -12238,7 +12237,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>320</v>
@@ -12260,7 +12259,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <f>EDATE(A337,1)</f>
         <v>40057</v>
@@ -12285,7 +12284,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>321</v>
@@ -12307,7 +12306,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f>EDATE(A340,1)</f>
         <v>40087</v>
@@ -12332,7 +12331,7 @@
         <v>40157</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>44</v>
@@ -12354,7 +12353,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>327</v>
@@ -12376,7 +12375,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <f>EDATE(A342,1)</f>
         <v>40118</v>
@@ -12399,7 +12398,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>325</v>
@@ -12423,7 +12422,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>324</v>
@@ -12445,7 +12444,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <f>EDATE(A345,1)</f>
         <v>40148</v>
@@ -12470,7 +12469,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>329</v>
@@ -12492,7 +12491,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>325</v>
@@ -12516,7 +12515,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>331</v>
@@ -12538,7 +12537,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="48" t="s">
         <v>333</v>
       </c>
@@ -12556,7 +12555,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>40179</v>
       </c>
@@ -12578,7 +12577,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>76</v>
@@ -12598,7 +12597,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>336</v>
@@ -12620,7 +12619,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <f>EDATE(A353,1)</f>
         <v>40210</v>
@@ -12645,7 +12644,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>337</v>
@@ -12667,7 +12666,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <f>EDATE(A356,1)</f>
         <v>40238</v>
@@ -12694,7 +12693,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>76</v>
@@ -12714,7 +12713,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>337</v>
@@ -12734,7 +12733,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <f>EDATE(A358,1)</f>
         <v>40269</v>
@@ -12761,7 +12760,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>325</v>
@@ -12783,7 +12782,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>343</v>
@@ -12805,7 +12804,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>44</v>
@@ -12827,7 +12826,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>70</v>
@@ -12849,7 +12848,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>110</v>
@@ -12871,7 +12870,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>347</v>
@@ -12893,7 +12892,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <f>EDATE(A361,1)</f>
         <v>40299</v>
@@ -12918,7 +12917,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <f t="shared" ref="A369" si="12">EDATE(A368,1)</f>
         <v>40330</v>
@@ -12943,7 +12942,7 @@
         <v>40365</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>70</v>
@@ -12965,7 +12964,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>350</v>
@@ -12987,7 +12986,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <f>EDATE(A369,1)</f>
         <v>40360</v>
@@ -13012,7 +13011,7 @@
         <v>40275</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>351</v>
@@ -13034,7 +13033,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f>EDATE(A372,1)</f>
         <v>40391</v>
@@ -13059,7 +13058,7 @@
         <v>40337</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>44</v>
@@ -13081,7 +13080,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>353</v>
@@ -13103,7 +13102,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <f>EDATE(A374,1)</f>
         <v>40422</v>
@@ -13128,7 +13127,7 @@
         <v>40430</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20"/>
       <c r="C378" s="13">
@@ -13146,7 +13145,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <f>EDATE(A377,1)</f>
         <v>40452</v>
@@ -13171,7 +13170,7 @@
         <v>40278</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13">
@@ -13189,7 +13188,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <f>EDATE(A379,1)</f>
         <v>40483</v>
@@ -13214,7 +13213,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <f>EDATE(A381,1)</f>
         <v>40513</v>
@@ -13239,7 +13238,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="48" t="s">
         <v>356</v>
       </c>
@@ -13257,7 +13256,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>40544</v>
       </c>
@@ -13279,7 +13278,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>44</v>
@@ -13301,7 +13300,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>359</v>
@@ -13323,7 +13322,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <f>EDATE(A384,1)</f>
         <v>40575</v>
@@ -13348,7 +13347,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <f t="shared" ref="A388:A410" si="13">EDATE(A387,1)</f>
         <v>40603</v>
@@ -13373,7 +13372,7 @@
         <v>40636</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>44</v>
@@ -13395,7 +13394,7 @@
         <v>40698</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>361</v>
@@ -13417,7 +13416,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f>EDATE(A388,1)</f>
         <v>40634</v>
@@ -13442,7 +13441,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>70</v>
@@ -13464,7 +13463,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>325</v>
@@ -13486,7 +13485,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>362</v>
@@ -13506,7 +13505,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f>EDATE(A391,1)</f>
         <v>40664</v>
@@ -13533,7 +13532,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="64" t="s">
         <v>548</v>
@@ -13553,7 +13552,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>367</v>
@@ -13575,7 +13574,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13">
@@ -13593,7 +13592,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <f>EDATE(A395,1)</f>
         <v>40695</v>
@@ -13614,7 +13613,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <f t="shared" si="13"/>
         <v>40725</v>
@@ -13639,7 +13638,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <f t="shared" si="13"/>
         <v>40756</v>
@@ -13664,7 +13663,7 @@
         <v>40855</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>44</v>
@@ -13686,7 +13685,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>44</v>
@@ -13708,7 +13707,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>372</v>
@@ -13730,7 +13729,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f>EDATE(A401,1)</f>
         <v>40787</v>
@@ -13755,7 +13754,7 @@
         <v>40886</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>51</v>
@@ -13777,7 +13776,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>373</v>
@@ -13799,7 +13798,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <f>EDATE(A405,1)</f>
         <v>40817</v>
@@ -13824,7 +13823,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <f t="shared" si="13"/>
         <v>40848</v>
@@ -13849,7 +13848,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <f t="shared" si="13"/>
         <v>40878</v>
@@ -13874,7 +13873,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>378</v>
@@ -13896,7 +13895,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="48" t="s">
         <v>379</v>
       </c>
@@ -13914,7 +13913,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>40909</v>
       </c>
@@ -13936,7 +13935,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>51</v>
@@ -13958,7 +13957,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>44</v>
@@ -13980,7 +13979,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>383</v>
@@ -14002,7 +14001,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <f>EDATE(A413,1)</f>
         <v>40940</v>
@@ -14027,7 +14026,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <f t="shared" ref="A418:A437" si="14">EDATE(A417,1)</f>
         <v>40969</v>
@@ -14052,7 +14051,7 @@
         <v>41216</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>44</v>
@@ -14074,7 +14073,7 @@
         <v>11018</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>385</v>
@@ -14096,7 +14095,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <f>EDATE(A418,1)</f>
         <v>41000</v>
@@ -14121,7 +14120,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>387</v>
@@ -14143,7 +14142,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <f>EDATE(A421,1)</f>
         <v>41030</v>
@@ -14170,7 +14169,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>44</v>
@@ -14192,7 +14191,7 @@
         <v>40914</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>389</v>
@@ -14212,7 +14211,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>391</v>
@@ -14234,7 +14233,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <f>EDATE(A423,1)</f>
         <v>41061</v>
@@ -14261,7 +14260,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>392</v>
@@ -14283,7 +14282,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <f>EDATE(A427,1)</f>
         <v>41091</v>
@@ -14308,7 +14307,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>395</v>
@@ -14330,7 +14329,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <f>EDATE(A429,1)</f>
         <v>41122</v>
@@ -14355,7 +14354,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <f t="shared" si="14"/>
         <v>41153</v>
@@ -14380,7 +14379,7 @@
         <v>41099</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>44</v>
@@ -14402,7 +14401,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>44</v>
@@ -14422,7 +14421,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>397</v>
@@ -14444,7 +14443,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <f>EDATE(A432,1)</f>
         <v>41183</v>
@@ -14469,7 +14468,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <f t="shared" si="14"/>
         <v>41214</v>
@@ -14494,7 +14493,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>401</v>
@@ -14516,7 +14515,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <f>EDATE(A437,1)</f>
         <v>41244</v>
@@ -14541,7 +14540,7 @@
         <v>41041</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>44</v>
@@ -14563,7 +14562,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>402</v>
@@ -14585,7 +14584,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="48" t="s">
         <v>380</v>
       </c>
@@ -14603,7 +14602,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>41275</v>
       </c>
@@ -14625,7 +14624,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>405</v>
@@ -14647,7 +14646,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <f>EDATE(A443,1)</f>
         <v>41306</v>
@@ -14670,7 +14669,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>164</v>
@@ -14692,7 +14691,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>409</v>
@@ -14714,7 +14713,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <f>EDATE(A445,1)</f>
         <v>41334</v>
@@ -14739,7 +14738,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>411</v>
@@ -14761,7 +14760,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <f>EDATE(A448,1)</f>
         <v>41365</v>
@@ -14786,7 +14785,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <f t="shared" ref="A451:A467" si="15">EDATE(A450,1)</f>
         <v>41395</v>
@@ -14811,7 +14810,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>44</v>
@@ -14833,7 +14832,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>415</v>
@@ -14855,7 +14854,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <f>EDATE(A451,1)</f>
         <v>41426</v>
@@ -14880,7 +14879,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>354</v>
@@ -14902,7 +14901,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <f>EDATE(A454,1)</f>
         <v>41456</v>
@@ -14927,7 +14926,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>44</v>
@@ -14949,7 +14948,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>44</v>
@@ -14971,7 +14970,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>420</v>
@@ -14993,7 +14992,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <f>EDATE(A456,1)</f>
         <v>41487</v>
@@ -15018,7 +15017,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>422</v>
@@ -15040,7 +15039,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>424</v>
@@ -15062,7 +15061,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <f>EDATE(A460,1)</f>
         <v>41518</v>
@@ -15087,7 +15086,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <f t="shared" si="15"/>
         <v>41548</v>
@@ -15112,7 +15111,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>427</v>
@@ -15134,7 +15133,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <f>EDATE(A464,1)</f>
         <v>41579</v>
@@ -15159,7 +15158,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <f t="shared" si="15"/>
         <v>41609</v>
@@ -15184,7 +15183,7 @@
         <v>41620</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>428</v>
@@ -15206,7 +15205,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="48" t="s">
         <v>429</v>
       </c>
@@ -15224,7 +15223,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>41640</v>
       </c>
@@ -15246,7 +15245,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>80</v>
@@ -15268,7 +15267,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>435</v>
@@ -15290,7 +15289,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <f>EDATE(A470,1)</f>
         <v>41671</v>
@@ -15315,7 +15314,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>438</v>
@@ -15337,7 +15336,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <f>EDATE(A473,1)</f>
         <v>41699</v>
@@ -15362,7 +15361,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>76</v>
@@ -15382,7 +15381,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>441</v>
@@ -15404,7 +15403,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <f>EDATE(A475,1)</f>
         <v>41730</v>
@@ -15429,7 +15428,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>443</v>
@@ -15451,7 +15450,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <f>EDATE(A478,1)</f>
         <v>41760</v>
@@ -15476,7 +15475,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>51</v>
@@ -15498,7 +15497,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>445</v>
@@ -15520,7 +15519,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <f>EDATE(A480,1)</f>
         <v>41791</v>
@@ -15545,7 +15544,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <f t="shared" ref="A484:A489" si="16">EDATE(A483,1)</f>
         <v>41821</v>
@@ -15570,7 +15569,7 @@
         <v>41646</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>44</v>
@@ -15592,7 +15591,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>449</v>
@@ -15614,7 +15613,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <f>EDATE(A484,1)</f>
         <v>41852</v>
@@ -15639,7 +15638,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <f t="shared" si="16"/>
         <v>41883</v>
@@ -15664,7 +15663,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <f t="shared" si="16"/>
         <v>41913</v>
@@ -15689,7 +15688,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>452</v>
@@ -15711,7 +15710,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <f>EDATE(A489,1)</f>
         <v>41944</v>
@@ -15736,7 +15735,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <f>EDATE(A491,1)</f>
         <v>41974</v>
@@ -15761,7 +15760,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>350</v>
@@ -15783,7 +15782,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="48" t="s">
         <v>430</v>
       </c>
@@ -15801,7 +15800,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>42005</v>
       </c>
@@ -15825,7 +15824,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>76</v>
@@ -15845,7 +15844,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20"/>
       <c r="C497" s="13">
@@ -15863,7 +15862,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <f>EDATE(A495,1)</f>
         <v>42036</v>
@@ -15888,7 +15887,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20"/>
       <c r="C499" s="13">
@@ -15906,7 +15905,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <f>EDATE(A498,1)</f>
         <v>42064</v>
@@ -15931,7 +15930,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>44</v>
@@ -15953,7 +15952,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20"/>
       <c r="C502" s="13">
@@ -15971,7 +15970,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <f>EDATE(A500,1)</f>
         <v>42095</v>
@@ -15992,7 +15991,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <f t="shared" ref="A504:A518" si="17">EDATE(A503,1)</f>
         <v>42125</v>
@@ -16013,7 +16012,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <f t="shared" si="17"/>
         <v>42156</v>
@@ -16038,7 +16037,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20"/>
       <c r="C506" s="13">
@@ -16056,7 +16055,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <f>EDATE(A505,1)</f>
         <v>42186</v>
@@ -16081,7 +16080,7 @@
         <v>42284</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>44</v>
@@ -16103,7 +16102,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20"/>
       <c r="C509" s="13">
@@ -16121,7 +16120,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <f>EDATE(A507,1)</f>
         <v>42217</v>
@@ -16142,7 +16141,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <f t="shared" si="17"/>
         <v>42248</v>
@@ -16167,7 +16166,7 @@
         <v>42256</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20"/>
       <c r="C512" s="13">
@@ -16185,7 +16184,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <f>EDATE(A511,1)</f>
         <v>42278</v>
@@ -16210,7 +16209,7 @@
         <v>42226</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>55</v>
@@ -16232,7 +16231,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>44</v>
@@ -16254,7 +16253,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20"/>
       <c r="C516" s="13">
@@ -16272,7 +16271,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <f>EDATE(A513,1)</f>
         <v>42309</v>
@@ -16293,7 +16292,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <f t="shared" si="17"/>
         <v>42339</v>
@@ -16318,7 +16317,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="48" t="s">
         <v>431</v>
       </c>
@@ -16336,7 +16335,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>42370</v>
       </c>
@@ -16358,7 +16357,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>465</v>
@@ -16380,7 +16379,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <f>EDATE(A520,1)</f>
         <v>42401</v>
@@ -16405,7 +16404,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>51</v>
@@ -16427,7 +16426,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
         <v>468</v>
@@ -16449,7 +16448,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <f>EDATE(A522,1)</f>
         <v>42430</v>
@@ -16474,7 +16473,7 @@
         <v>42432</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>469</v>
@@ -16496,7 +16495,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <f>EDATE(A525,1)</f>
         <v>42461</v>
@@ -16521,7 +16520,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>406</v>
@@ -16541,7 +16540,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>55</v>
@@ -16563,7 +16562,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>473</v>
@@ -16585,7 +16584,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <f>EDATE(A527,1)</f>
         <v>42491</v>
@@ -16610,7 +16609,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <f t="shared" ref="A532:A541" si="18">EDATE(A531,1)</f>
         <v>42522</v>
@@ -16635,7 +16634,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>44</v>
@@ -16657,7 +16656,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>51</v>
@@ -16679,7 +16678,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
         <v>477</v>
@@ -16701,7 +16700,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <f>EDATE(A532,1)</f>
         <v>42552</v>
@@ -16726,7 +16725,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>479</v>
@@ -16748,7 +16747,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <f>EDATE(A536,1)</f>
         <v>42583</v>
@@ -16773,7 +16772,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>482</v>
@@ -16795,7 +16794,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <f>EDATE(A538,1)</f>
         <v>42614</v>
@@ -16820,7 +16819,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <f t="shared" si="18"/>
         <v>42644</v>
@@ -16845,7 +16844,7 @@
         <v>42411</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>484</v>
@@ -16867,7 +16866,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <f>EDATE(A541,1)</f>
         <v>42675</v>
@@ -16892,7 +16891,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <f>EDATE(A543,1)</f>
         <v>42705</v>
@@ -16917,7 +16916,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20"/>
       <c r="C545" s="13">
@@ -16935,7 +16934,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="48" t="s">
         <v>432</v>
       </c>
@@ -16953,7 +16952,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>42736</v>
       </c>
@@ -16975,7 +16974,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>44</v>
@@ -16997,7 +16996,7 @@
         <v>42768</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>302</v>
@@ -17019,7 +17018,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <f>EDATE(A547,1)</f>
         <v>42767</v>
@@ -17044,7 +17043,7 @@
         <v>42888</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20"/>
       <c r="C551" s="13">
@@ -17062,7 +17061,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <f>EDATE(A550,1)</f>
         <v>42795</v>
@@ -17085,7 +17084,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>489</v>
@@ -17107,7 +17106,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <f>EDATE(A552,1)</f>
         <v>42826</v>
@@ -17132,7 +17131,7 @@
         <v>42829</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>51</v>
@@ -17154,7 +17153,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>369</v>
@@ -17176,7 +17175,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <f>EDATE(A554,1)</f>
         <v>42856</v>
@@ -17201,7 +17200,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>44</v>
@@ -17223,7 +17222,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>453</v>
@@ -17245,7 +17244,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <f>EDATE(A557,1)</f>
         <v>42887</v>
@@ -17270,7 +17269,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>44</v>
@@ -17292,7 +17291,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>44</v>
@@ -17314,7 +17313,7 @@
         <v>42923</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>495</v>
@@ -17336,7 +17335,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <f>EDATE(A560,1)</f>
         <v>42917</v>
@@ -17361,7 +17360,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <f t="shared" ref="A565:A570" si="19">EDATE(A564,1)</f>
         <v>42948</v>
@@ -17386,7 +17385,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <f t="shared" si="19"/>
         <v>42979</v>
@@ -17411,7 +17410,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
         <v>44</v>
@@ -17433,7 +17432,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>453</v>
@@ -17455,7 +17454,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <f>EDATE(A566,1)</f>
         <v>43009</v>
@@ -17480,7 +17479,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <f t="shared" si="19"/>
         <v>43040</v>
@@ -17501,7 +17500,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <f>EDATE(A570,1)</f>
         <v>43070</v>
@@ -17526,7 +17525,7 @@
         <v>42867</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>245</v>
@@ -17548,7 +17547,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="48" t="s">
         <v>433</v>
       </c>
@@ -17566,7 +17565,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>43101</v>
       </c>
@@ -17590,7 +17589,7 @@
         <v>43313</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>76</v>
@@ -17610,7 +17609,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20" t="s">
         <v>70</v>
@@ -17632,7 +17631,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13">
@@ -17650,7 +17649,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <f>EDATE(A574,1)</f>
         <v>43132</v>
@@ -17675,7 +17674,7 @@
         <v>43345</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13">
@@ -17693,7 +17692,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <f>EDATE(A578,1)</f>
         <v>43160</v>
@@ -17718,7 +17717,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13">
@@ -17736,7 +17735,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <f>EDATE(A580,1)</f>
         <v>43191</v>
@@ -17757,7 +17756,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <f t="shared" ref="A583:A598" si="20">EDATE(A582,1)</f>
         <v>43221</v>
@@ -17780,7 +17779,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
         <v>51</v>
@@ -17802,7 +17801,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40"/>
       <c r="B585" s="20" t="s">
         <v>51</v>
@@ -17824,7 +17823,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40"/>
       <c r="B586" s="20" t="s">
         <v>499</v>
@@ -17846,7 +17845,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <f>EDATE(A583,1)</f>
         <v>43252</v>
@@ -17871,7 +17870,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
         <v>507</v>
@@ -17893,7 +17892,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <f>EDATE(A587,1)</f>
         <v>43282</v>
@@ -17918,7 +17917,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
         <v>44</v>
@@ -17940,7 +17939,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>55</v>
@@ -17962,7 +17961,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
         <v>45</v>
@@ -17984,7 +17983,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <f>EDATE(A589,1)</f>
         <v>43313</v>
@@ -18009,7 +18008,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <f t="shared" si="20"/>
         <v>43344</v>
@@ -18034,7 +18033,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40"/>
       <c r="B595" s="20" t="s">
         <v>51</v>
@@ -18056,7 +18055,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
       <c r="B596" s="20" t="s">
         <v>512</v>
@@ -18078,7 +18077,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <f>EDATE(A594,1)</f>
         <v>43374</v>
@@ -18103,7 +18102,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <f t="shared" si="20"/>
         <v>43405</v>
@@ -18128,7 +18127,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40"/>
       <c r="B599" s="20" t="s">
         <v>44</v>
@@ -18150,7 +18149,7 @@
         <v>43323</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40"/>
       <c r="B600" s="20" t="s">
         <v>44</v>
@@ -18172,7 +18171,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>512</v>
@@ -18194,7 +18193,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <f>EDATE(A598,1)</f>
         <v>43435</v>
@@ -18219,7 +18218,7 @@
         <v>43416</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40"/>
       <c r="B603" s="20" t="s">
         <v>517</v>
@@ -18241,7 +18240,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="48" t="s">
         <v>518</v>
       </c>
@@ -18259,7 +18258,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <v>43466</v>
       </c>
@@ -18281,7 +18280,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40"/>
       <c r="B606" s="20" t="s">
         <v>70</v>
@@ -18303,7 +18302,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20" t="s">
         <v>49</v>
@@ -18325,7 +18324,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
         <f>EDATE(A605,1)</f>
         <v>43497</v>
@@ -18346,7 +18345,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <f t="shared" ref="A609:A629" si="21">EDATE(A608,1)</f>
         <v>43525</v>
@@ -18371,7 +18370,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
         <v>44</v>
@@ -18393,7 +18392,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40"/>
       <c r="B611" s="20" t="s">
         <v>44</v>
@@ -18415,7 +18414,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20" t="s">
         <v>44</v>
@@ -18437,7 +18436,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40"/>
       <c r="B613" s="20" t="s">
         <v>55</v>
@@ -18459,7 +18458,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40"/>
       <c r="B614" s="20" t="s">
         <v>521</v>
@@ -18481,7 +18480,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
         <f>EDATE(A609,1)</f>
         <v>43556</v>
@@ -18506,7 +18505,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
         <f t="shared" si="21"/>
         <v>43586</v>
@@ -18531,7 +18530,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40"/>
       <c r="B617" s="20" t="s">
         <v>44</v>
@@ -18553,7 +18552,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40"/>
       <c r="B618" s="20" t="s">
         <v>76</v>
@@ -18573,7 +18572,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13">
@@ -18591,7 +18590,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
         <f>EDATE(A616,1)</f>
         <v>43617</v>
@@ -18616,7 +18615,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40"/>
       <c r="B621" s="20" t="s">
         <v>44</v>
@@ -18638,7 +18637,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40"/>
       <c r="B622" s="20" t="s">
         <v>512</v>
@@ -18660,7 +18659,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
         <f>EDATE(A620,1)</f>
         <v>43647</v>
@@ -18685,7 +18684,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
         <f t="shared" si="21"/>
         <v>43678</v>
@@ -18710,7 +18709,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40"/>
       <c r="B625" s="20" t="s">
         <v>44</v>
@@ -18732,7 +18731,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40"/>
       <c r="B626" s="20" t="s">
         <v>44</v>
@@ -18754,7 +18753,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40"/>
       <c r="B627" s="20" t="s">
         <v>139</v>
@@ -18776,7 +18775,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
         <f>EDATE(A624,1)</f>
         <v>43709</v>
@@ -18801,7 +18800,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
         <f t="shared" si="21"/>
         <v>43739</v>
@@ -18826,7 +18825,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40"/>
       <c r="B630" s="20" t="s">
         <v>55</v>
@@ -18848,7 +18847,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40"/>
       <c r="B631" s="20" t="s">
         <v>44</v>
@@ -18870,7 +18869,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40"/>
       <c r="B632" s="20" t="s">
         <v>536</v>
@@ -18892,7 +18891,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
         <f>EDATE(A629,1)</f>
         <v>43770</v>
@@ -18917,7 +18916,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40"/>
       <c r="B634" s="20" t="s">
         <v>76</v>
@@ -18937,7 +18936,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40"/>
       <c r="B635" s="20" t="s">
         <v>540</v>
@@ -18959,7 +18958,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
         <f>EDATE(A633,1)</f>
         <v>43800</v>
@@ -18984,7 +18983,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40"/>
       <c r="B637" s="20" t="s">
         <v>543</v>
@@ -19006,7 +19005,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="48" t="s">
         <v>544</v>
       </c>
@@ -19024,7 +19023,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
         <v>43831</v>
       </c>
@@ -19046,7 +19045,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40"/>
       <c r="B640" s="20" t="s">
         <v>546</v>
@@ -19066,7 +19065,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40"/>
       <c r="B641" s="20"/>
       <c r="C641" s="13">
@@ -19084,7 +19083,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
         <f>EDATE(A639,1)</f>
         <v>43862</v>
@@ -19105,7 +19104,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
         <f t="shared" ref="A643:A653" si="22">EDATE(A642,1)</f>
         <v>43891</v>
@@ -19126,7 +19125,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
         <f t="shared" si="22"/>
         <v>43922</v>
@@ -19147,7 +19146,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
         <f t="shared" si="22"/>
         <v>43952</v>
@@ -19168,7 +19167,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
         <f t="shared" si="22"/>
         <v>43983</v>
@@ -19189,7 +19188,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
         <f t="shared" si="22"/>
         <v>44013</v>
@@ -19214,7 +19213,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40"/>
       <c r="B648" s="20"/>
       <c r="C648" s="13">
@@ -19232,7 +19231,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
         <f>EDATE(A647,1)</f>
         <v>44044</v>
@@ -19253,7 +19252,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
         <f t="shared" si="22"/>
         <v>44075</v>
@@ -19274,7 +19273,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
         <f t="shared" si="22"/>
         <v>44105</v>
@@ -19295,7 +19294,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
         <f t="shared" si="22"/>
         <v>44136</v>
@@ -19316,7 +19315,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
         <f t="shared" si="22"/>
         <v>44166</v>
@@ -19341,7 +19340,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40"/>
       <c r="B654" s="20" t="s">
         <v>76</v>
@@ -19361,7 +19360,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40"/>
       <c r="B655" s="20" t="s">
         <v>552</v>
@@ -19383,7 +19382,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="48" t="s">
         <v>553</v>
       </c>
@@ -19401,7 +19400,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
         <v>44197</v>
       </c>
@@ -19421,7 +19420,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
         <f>EDATE(A657,1)</f>
         <v>44228</v>
@@ -19442,7 +19441,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
         <f t="shared" ref="A659:A667" si="23">EDATE(A658,1)</f>
         <v>44256</v>
@@ -19463,7 +19462,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
         <f t="shared" si="23"/>
         <v>44287</v>
@@ -19484,7 +19483,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
         <f t="shared" si="23"/>
         <v>44317</v>
@@ -19505,7 +19504,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
         <f t="shared" si="23"/>
         <v>44348</v>
@@ -19526,7 +19525,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
         <f t="shared" si="23"/>
         <v>44378</v>
@@ -19547,7 +19546,7 @@
       <c r="J663" s="12"/>
       <c r="K663" s="15"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
         <f t="shared" si="23"/>
         <v>44409</v>
@@ -19568,7 +19567,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
         <f t="shared" si="23"/>
         <v>44440</v>
@@ -19589,7 +19588,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
         <f t="shared" si="23"/>
         <v>44470</v>
@@ -19610,7 +19609,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
         <f t="shared" si="23"/>
         <v>44501</v>
@@ -19631,7 +19630,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
         <f>EDATE(A667,1)</f>
         <v>44531</v>
@@ -19656,7 +19655,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40"/>
       <c r="B669" s="20" t="s">
         <v>102</v>
@@ -19678,7 +19677,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40"/>
       <c r="B670" s="20" t="s">
         <v>164</v>
@@ -19700,7 +19699,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="48" t="s">
         <v>556</v>
       </c>
@@ -19718,7 +19717,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
         <v>44562</v>
       </c>
@@ -19738,7 +19737,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
         <f>EDATE(A672,1)</f>
         <v>44593</v>
@@ -19759,7 +19758,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
         <f t="shared" ref="A674:A689" si="24">EDATE(A673,1)</f>
         <v>44621</v>
@@ -19782,7 +19781,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13">
@@ -19800,7 +19799,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
         <f>EDATE(A674,1)</f>
         <v>44652</v>
@@ -19825,7 +19824,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13">
@@ -19843,7 +19842,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
         <f>EDATE(A676,1)</f>
         <v>44682</v>
@@ -19868,7 +19867,7 @@
         <v>44597</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40"/>
       <c r="B679" s="20" t="s">
         <v>44</v>
@@ -19890,7 +19889,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13">
@@ -19908,7 +19907,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
         <f>EDATE(A678,1)</f>
         <v>44713</v>
@@ -19933,7 +19932,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40"/>
       <c r="B682" s="20" t="s">
         <v>51</v>
@@ -19955,7 +19954,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40"/>
       <c r="B683" s="20" t="s">
         <v>44</v>
@@ -19977,7 +19976,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40"/>
       <c r="B684" s="20" t="s">
         <v>76</v>
@@ -19997,7 +19996,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13">
@@ -20015,7 +20014,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
         <f>EDATE(A681,1)</f>
         <v>44743</v>
@@ -20040,7 +20039,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13">
@@ -20058,7 +20057,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
         <f>EDATE(A686,1)</f>
         <v>44774</v>
@@ -20085,7 +20084,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
         <f t="shared" si="24"/>
         <v>44805</v>
@@ -20112,7 +20111,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
         <v>44835</v>
       </c>
@@ -20132,7 +20131,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
         <v>44866</v>
       </c>
@@ -20158,7 +20157,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40"/>
       <c r="B692" s="20" t="s">
         <v>569</v>
@@ -20180,7 +20179,7 @@
         <v>44883</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
         <v>44896</v>
       </c>
@@ -20206,7 +20205,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40"/>
       <c r="B694" s="20" t="s">
         <v>575</v>
@@ -20228,7 +20227,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="48" t="s">
         <v>566</v>
       </c>
@@ -20246,7 +20245,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
         <v>44927</v>
       </c>
@@ -20270,7 +20269,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40"/>
       <c r="B697" s="15" t="s">
         <v>569</v>
@@ -20292,7 +20291,7 @@
         <v>44930</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
         <v>44958</v>
       </c>
@@ -20318,25 +20317,33 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
         <v>44986</v>
       </c>
-      <c r="B699" s="15"/>
-      <c r="C699" s="41"/>
+      <c r="B699" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="C699" s="41">
+        <v>1.25</v>
+      </c>
       <c r="D699" s="42"/>
       <c r="E699" s="47"/>
       <c r="F699" s="15"/>
-      <c r="G699" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H699" s="42"/>
+      <c r="G699" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H699" s="42">
+        <v>1</v>
+      </c>
       <c r="I699" s="47"/>
       <c r="J699" s="12"/>
-      <c r="K699" s="15"/>
-    </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K699" s="50">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
         <v>45017</v>
       </c>
@@ -20354,7 +20361,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
         <v>45047</v>
       </c>
@@ -20372,7 +20379,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
         <v>45078</v>
       </c>
@@ -20390,7 +20397,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
         <v>45108</v>
       </c>
@@ -20408,7 +20415,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
         <v>45139</v>
       </c>
@@ -20426,7 +20433,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
         <v>45170</v>
       </c>
@@ -20444,7 +20451,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
         <v>45200</v>
       </c>
@@ -20462,7 +20469,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
         <v>45231</v>
       </c>
@@ -20480,7 +20487,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
         <v>45261</v>
       </c>
@@ -20498,7 +20505,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
         <v>45292</v>
       </c>
@@ -20516,7 +20523,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
         <v>45323</v>
       </c>
@@ -20534,7 +20541,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
         <v>45352</v>
       </c>
@@ -20552,7 +20559,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
         <v>45383</v>
       </c>
@@ -20570,7 +20577,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
         <v>45413</v>
       </c>
@@ -20588,7 +20595,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
         <v>45444</v>
       </c>
@@ -20606,7 +20613,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
         <v>45474</v>
       </c>
@@ -20624,7 +20631,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
         <v>45505</v>
       </c>
@@ -20642,7 +20649,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
         <v>45536</v>
       </c>
@@ -20660,7 +20667,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
         <v>45566</v>
       </c>
@@ -20678,7 +20685,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
         <v>45597</v>
       </c>
@@ -20696,7 +20703,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
         <v>45627</v>
       </c>
@@ -20714,7 +20721,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
         <v>45658</v>
       </c>
@@ -20732,7 +20739,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
         <v>45689</v>
       </c>
@@ -20750,7 +20757,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
         <v>45717</v>
       </c>
@@ -20768,7 +20775,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
         <v>45748</v>
       </c>
@@ -20786,7 +20793,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
         <v>45778</v>
       </c>
@@ -20804,7 +20811,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
         <v>45809</v>
       </c>
@@ -20822,7 +20829,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
         <v>45839</v>
       </c>
@@ -20840,7 +20847,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
         <v>45870</v>
       </c>
@@ -20858,7 +20865,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
         <v>45901</v>
       </c>
@@ -20876,7 +20883,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
         <v>45931</v>
       </c>
@@ -20894,7 +20901,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
         <v>45962</v>
       </c>
@@ -20912,7 +20919,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
         <v>45992</v>
       </c>
@@ -20930,7 +20937,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
         <v>46023</v>
       </c>
@@ -20948,7 +20955,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
         <v>46054</v>
       </c>
@@ -20966,7 +20973,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
         <v>46082</v>
       </c>
@@ -20984,7 +20991,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
         <v>46113</v>
       </c>
@@ -21002,7 +21009,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
         <v>46143</v>
       </c>
@@ -21020,7 +21027,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
         <v>46174</v>
       </c>
@@ -21053,10 +21060,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21079,7 +21086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -21087,21 +21094,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="75" t="s">
         <v>33</v>
       </c>
@@ -21114,7 +21121,7 @@
       <c r="K1" s="76"/>
       <c r="L1" s="76"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -21143,7 +21150,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -21169,17 +21176,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -21200,7 +21207,7 @@
       <c r="K6" s="76"/>
       <c r="L6" s="76"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -21227,7 +21234,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -21253,7 +21260,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -21279,7 +21286,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -21305,7 +21312,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -21331,7 +21338,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -21357,7 +21364,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -21383,7 +21390,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -21409,7 +21416,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -21429,7 +21436,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -21449,7 +21456,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -21469,7 +21476,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -21490,7 +21497,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -21511,7 +21518,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -21532,7 +21539,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -21553,7 +21560,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -21574,7 +21581,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -21595,7 +21602,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -21616,7 +21623,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -21637,7 +21644,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -21658,7 +21665,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -21679,7 +21686,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -21700,7 +21707,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -21721,7 +21728,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -21742,7 +21749,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -21763,7 +21770,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -21784,7 +21791,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -21805,7 +21812,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -21826,7 +21833,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -21847,7 +21854,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -21868,7 +21875,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -21889,7 +21896,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -21898,7 +21905,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -21907,7 +21914,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -21916,7 +21923,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -21925,7 +21932,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -21934,7 +21941,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -21943,7 +21950,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -21952,7 +21959,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -21961,7 +21968,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -21970,7 +21977,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -21979,7 +21986,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -21988,7 +21995,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -21997,7 +22004,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -22006,7 +22013,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -22015,7 +22022,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -22024,7 +22031,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -22033,7 +22040,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -22042,7 +22049,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -22051,7 +22058,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -22060,7 +22067,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -22069,7 +22076,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -22078,7 +22085,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -22087,7 +22094,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -22096,7 +22103,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -22105,7 +22112,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -22114,7 +22121,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -22123,7 +22130,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -22132,7 +22139,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -22141,7 +22148,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -22150,7 +22157,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/MENDOZA, PRESCILA.xlsx
+++ b/REGULAR/OJT/MENDOZA, PRESCILA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="576">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2686,7 +2686,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2729,7 +2729,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2793,7 +2793,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2853,7 +2853,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2919,7 +2919,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2982,7 +2982,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3080,7 +3080,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3139,7 +3139,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3204,7 +3204,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3247,7 +3247,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3322,7 +3322,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3508,7 +3508,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3574,7 +3574,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3632,7 +3632,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3698,7 +3698,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3754,7 +3754,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3829,7 +3829,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3872,7 +3872,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3938,7 +3938,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3994,7 +3994,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4092,7 +4092,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4155,7 +4155,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4604,7 +4604,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A687" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B700" sqref="B700"/>
+      <selection pane="bottomLeft" activeCell="B701" sqref="B701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4777,7 +4777,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>36.603000000000009</v>
+        <v>35.603000000000009</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -20347,7 +20347,9 @@
       <c r="A700" s="40">
         <v>45017</v>
       </c>
-      <c r="B700" s="20"/>
+      <c r="B700" s="20" t="s">
+        <v>569</v>
+      </c>
       <c r="C700" s="13"/>
       <c r="D700" s="39"/>
       <c r="E700" s="9"/>
@@ -20356,10 +20358,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H700" s="39"/>
+      <c r="H700" s="39">
+        <v>1</v>
+      </c>
       <c r="I700" s="9"/>
       <c r="J700" s="11"/>
-      <c r="K700" s="20"/>
+      <c r="K700" s="49">
+        <v>45030</v>
+      </c>
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">

--- a/REGULAR/OJT/MENDOZA, PRESCILA.xlsx
+++ b/REGULAR/OJT/MENDOZA, PRESCILA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="576">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2686,7 +2686,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2729,7 +2729,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2793,7 +2793,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2853,7 +2853,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2919,7 +2919,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2982,7 +2982,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3080,7 +3080,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3139,7 +3139,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3204,7 +3204,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3247,7 +3247,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3322,7 +3322,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3508,7 +3508,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3574,7 +3574,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3632,7 +3632,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3698,7 +3698,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3754,7 +3754,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3829,7 +3829,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3872,7 +3872,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3938,7 +3938,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3994,7 +3994,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4092,7 +4092,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4155,7 +4155,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4604,7 +4604,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A687" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B701" sqref="B701"/>
+      <selection pane="bottomLeft" activeCell="H702" sqref="H702"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4767,7 +4767,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>31.412000000000035</v>
+        <v>32.662000000000035</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4777,7 +4777,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>35.603000000000009</v>
+        <v>35.853000000000009</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -20350,13 +20350,15 @@
       <c r="B700" s="20" t="s">
         <v>569</v>
       </c>
-      <c r="C700" s="13"/>
+      <c r="C700" s="41">
+        <v>1.25</v>
+      </c>
       <c r="D700" s="39"/>
       <c r="E700" s="9"/>
       <c r="F700" s="20"/>
-      <c r="G700" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G700" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H700" s="39">
         <v>1</v>
@@ -20371,7 +20373,9 @@
       <c r="A701" s="40">
         <v>45047</v>
       </c>
-      <c r="B701" s="20"/>
+      <c r="B701" s="20" t="s">
+        <v>569</v>
+      </c>
       <c r="C701" s="13"/>
       <c r="D701" s="39"/>
       <c r="E701" s="9"/>
@@ -20380,10 +20384,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H701" s="39"/>
+      <c r="H701" s="39">
+        <v>1</v>
+      </c>
       <c r="I701" s="9"/>
       <c r="J701" s="11"/>
-      <c r="K701" s="20"/>
+      <c r="K701" s="49">
+        <v>45058</v>
+      </c>
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">

--- a/REGULAR/OJT/MENDOZA, PRESCILA.xlsx
+++ b/REGULAR/OJT/MENDOZA, PRESCILA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="576">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2686,7 +2686,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2729,7 +2729,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2793,7 +2793,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2853,7 +2853,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2919,7 +2919,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2982,7 +2982,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3080,7 +3080,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3139,7 +3139,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3204,7 +3204,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3247,7 +3247,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3322,7 +3322,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3508,7 +3508,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3574,7 +3574,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3632,7 +3632,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3698,7 +3698,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3754,7 +3754,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3829,7 +3829,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3872,7 +3872,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3938,7 +3938,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3994,7 +3994,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4092,7 +4092,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4155,7 +4155,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4221,7 +4221,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K738" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K739" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4599,12 +4599,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L738"/>
+  <dimension ref="A2:L739"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A687" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="H702" sqref="H702"/>
+      <selection pane="bottomLeft" activeCell="H703" sqref="H703"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4767,7 +4767,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>32.662000000000035</v>
+        <v>33.912000000000035</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4777,7 +4777,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>35.853000000000009</v>
+        <v>36.103000000000009</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -20376,13 +20376,15 @@
       <c r="B701" s="20" t="s">
         <v>569</v>
       </c>
-      <c r="C701" s="13"/>
+      <c r="C701" s="41">
+        <v>1.25</v>
+      </c>
       <c r="D701" s="39"/>
       <c r="E701" s="9"/>
       <c r="F701" s="20"/>
-      <c r="G701" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G701" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H701" s="39">
         <v>1</v>
@@ -20394,11 +20396,11 @@
       </c>
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A702" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B702" s="20"/>
-      <c r="C702" s="13"/>
+      <c r="A702" s="40"/>
+      <c r="B702" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="C702" s="41"/>
       <c r="D702" s="39"/>
       <c r="E702" s="9"/>
       <c r="F702" s="20"/>
@@ -20406,14 +20408,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H702" s="39"/>
+      <c r="H702" s="39">
+        <v>1</v>
+      </c>
       <c r="I702" s="9"/>
       <c r="J702" s="11"/>
-      <c r="K702" s="20"/>
+      <c r="K702" s="49">
+        <v>45075</v>
+      </c>
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -20431,7 +20437,7 @@
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -20449,7 +20455,7 @@
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -20467,7 +20473,7 @@
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -20485,7 +20491,7 @@
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -20503,7 +20509,7 @@
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -20521,7 +20527,7 @@
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -20539,7 +20545,7 @@
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -20557,7 +20563,7 @@
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -20575,7 +20581,7 @@
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -20593,7 +20599,7 @@
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -20611,7 +20617,7 @@
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -20629,7 +20635,7 @@
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -20647,7 +20653,7 @@
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -20665,7 +20671,7 @@
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -20683,7 +20689,7 @@
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -20701,7 +20707,7 @@
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -20719,7 +20725,7 @@
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -20737,7 +20743,7 @@
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -20755,7 +20761,7 @@
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -20773,7 +20779,7 @@
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -20791,7 +20797,7 @@
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -20809,7 +20815,7 @@
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -20827,7 +20833,7 @@
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -20845,7 +20851,7 @@
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -20863,7 +20869,7 @@
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -20881,7 +20887,7 @@
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -20899,7 +20905,7 @@
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -20917,7 +20923,7 @@
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -20935,7 +20941,7 @@
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -20953,7 +20959,7 @@
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -20971,7 +20977,7 @@
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -20989,7 +20995,7 @@
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -21007,7 +21013,7 @@
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -21025,7 +21031,7 @@
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -21043,7 +21049,7 @@
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -21058,6 +21064,24 @@
       <c r="I738" s="9"/>
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
+    </row>
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A739" s="40">
+        <v>46174</v>
+      </c>
+      <c r="B739" s="20"/>
+      <c r="C739" s="13"/>
+      <c r="D739" s="39"/>
+      <c r="E739" s="9"/>
+      <c r="F739" s="20"/>
+      <c r="G739" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H739" s="39"/>
+      <c r="I739" s="9"/>
+      <c r="J739" s="11"/>
+      <c r="K739" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/OJT/MENDOZA, PRESCILA.xlsx
+++ b/REGULAR/OJT/MENDOZA, PRESCILA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42701763-8135-4FB1-8095-FDD9CAAAC8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="576">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1767,7 +1768,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2686,7 +2687,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2729,7 +2730,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2793,7 +2794,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2853,7 +2854,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2919,7 +2920,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2982,7 +2983,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3080,7 +3081,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3139,7 +3140,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3204,7 +3205,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3247,7 +3248,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3322,7 +3323,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3508,7 +3509,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3574,7 +3575,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3632,7 +3633,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3698,7 +3699,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3754,7 +3755,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3829,7 +3830,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3872,7 +3873,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3938,7 +3939,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3994,7 +3995,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4092,7 +4093,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4155,7 +4156,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4204,7 +4205,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -4221,25 +4222,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K739" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K739" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4251,13 +4252,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4266,14 +4267,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4577,7 +4578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4587,7 +4588,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4595,34 +4596,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:L739"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A687" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A696" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="H703" sqref="H703"/>
+      <selection pane="bottomLeft" activeCell="E703" sqref="E703"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4643,7 +4644,7 @@
       <c r="J2" s="67"/>
       <c r="K2" s="68"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4663,7 +4664,7 @@
       <c r="J3" s="69"/>
       <c r="K3" s="70"/>
     </row>
-    <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4685,7 +4686,7 @@
       <c r="J4" s="71"/>
       <c r="K4" s="72"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4693,7 +4694,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4706,7 +4707,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="65" t="s">
@@ -4723,7 +4724,7 @@
       <c r="J7" s="65"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4758,7 +4759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4767,7 +4768,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>33.912000000000035</v>
+        <v>35.162000000000035</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4777,12 +4778,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>36.103000000000009</v>
+        <v>36.353000000000009</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="51" t="s">
         <v>43</v>
       </c>
@@ -4804,7 +4805,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="60" t="s">
         <v>61</v>
       </c>
@@ -4826,7 +4827,7 @@
       <c r="K11" s="58"/>
       <c r="L11" s="57"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="53">
         <v>35916</v>
       </c>
@@ -4846,7 +4847,7 @@
       <c r="J12" s="56"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="20" t="s">
         <v>60</v>
@@ -4866,7 +4867,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>35947</v>
       </c>
@@ -4892,7 +4893,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>45</v>
@@ -4912,7 +4913,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <f>EDATE(A14,1)</f>
         <v>35977</v>
@@ -4939,7 +4940,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>47</v>
@@ -4959,7 +4960,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <f>EDATE(A16,1)</f>
         <v>36008</v>
@@ -4986,7 +4987,7 @@
         <v>36076</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>49</v>
@@ -5006,7 +5007,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <f>EDATE(A18,1)</f>
         <v>36039</v>
@@ -5031,7 +5032,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <f t="shared" ref="A21" si="0">EDATE(A20,1)</f>
         <v>36069</v>
@@ -5058,7 +5059,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>53</v>
@@ -5078,7 +5079,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <f>EDATE(A21,1)</f>
         <v>36100</v>
@@ -5105,7 +5106,7 @@
         <v>36049</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>54</v>
@@ -5125,7 +5126,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <f>EDATE(A23,1)</f>
         <v>36130</v>
@@ -5152,7 +5153,7 @@
         <v>35807</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>55</v>
@@ -5174,7 +5175,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>57</v>
@@ -5196,7 +5197,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>59</v>
@@ -5216,7 +5217,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="48" t="s">
         <v>65</v>
       </c>
@@ -5234,7 +5235,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>36161</v>
       </c>
@@ -5260,7 +5261,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>68</v>
@@ -5280,7 +5281,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <f>EDATE(A30,1)</f>
         <v>36192</v>
@@ -5305,7 +5306,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f t="shared" ref="A33:A45" si="1">EDATE(A32,1)</f>
         <v>36220</v>
@@ -5332,7 +5333,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>70</v>
@@ -5354,7 +5355,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>73</v>
@@ -5374,7 +5375,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f>EDATE(A33,1)</f>
         <v>36251</v>
@@ -5399,7 +5400,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <f t="shared" si="1"/>
         <v>36281</v>
@@ -5424,7 +5425,7 @@
         <v>36224</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>76</v>
@@ -5444,7 +5445,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>75</v>
@@ -5466,7 +5467,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f>EDATE(A37,1)</f>
         <v>36312</v>
@@ -5491,7 +5492,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <f t="shared" si="1"/>
         <v>36342</v>
@@ -5516,7 +5517,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f t="shared" si="1"/>
         <v>36373</v>
@@ -5541,7 +5542,7 @@
         <v>36411</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>74</v>
@@ -5563,7 +5564,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f>EDATE(A42,1)</f>
         <v>36404</v>
@@ -5588,7 +5589,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f t="shared" si="1"/>
         <v>36434</v>
@@ -5613,7 +5614,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>82</v>
@@ -5635,7 +5636,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f>EDATE(A45,1)</f>
         <v>36465</v>
@@ -5660,7 +5661,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>75</v>
@@ -5682,7 +5683,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <f>EDATE(A47,1)</f>
         <v>36495</v>
@@ -5709,7 +5710,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>86</v>
@@ -5729,7 +5730,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="48" t="s">
         <v>85</v>
       </c>
@@ -5747,7 +5748,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>36526</v>
       </c>
@@ -5769,7 +5770,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>87</v>
@@ -5791,7 +5792,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f>EDATE(A52,1)</f>
         <v>36557</v>
@@ -5816,7 +5817,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>90</v>
@@ -5838,7 +5839,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <f>EDATE(A54,1)</f>
         <v>36586</v>
@@ -5861,7 +5862,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>44</v>
@@ -5883,7 +5884,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>51</v>
@@ -5907,7 +5908,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>82</v>
@@ -5927,7 +5928,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <f>EDATE(A56,1)</f>
         <v>36617</v>
@@ -5952,7 +5953,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f t="shared" ref="A61:A70" si="2">EDATE(A60,1)</f>
         <v>36647</v>
@@ -5977,7 +5978,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>96</v>
@@ -5999,7 +6000,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>36678</v>
@@ -6024,7 +6025,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f t="shared" si="2"/>
         <v>36708</v>
@@ -6049,7 +6050,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>76</v>
@@ -6069,7 +6070,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>69</v>
@@ -6091,7 +6092,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <f>EDATE(A64,1)</f>
         <v>36739</v>
@@ -6112,7 +6113,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f t="shared" si="2"/>
         <v>36770</v>
@@ -6133,7 +6134,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <f t="shared" si="2"/>
         <v>36800</v>
@@ -6158,7 +6159,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <f t="shared" si="2"/>
         <v>36831</v>
@@ -6183,7 +6184,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>70</v>
@@ -6205,7 +6206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>101</v>
@@ -6227,7 +6228,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f>EDATE(A70,1)</f>
         <v>36861</v>
@@ -6252,7 +6253,7 @@
         <v>36537</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>55</v>
@@ -6274,7 +6275,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>87</v>
@@ -6296,7 +6297,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="48" t="s">
         <v>104</v>
       </c>
@@ -6314,7 +6315,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44197</v>
       </c>
@@ -6338,7 +6339,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>76</v>
@@ -6358,7 +6359,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>106</v>
@@ -6380,7 +6381,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f>EDATE(A77,1)</f>
         <v>44228</v>
@@ -6405,7 +6406,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>73</v>
@@ -6427,7 +6428,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <f>EDATE(A80,1)</f>
         <v>44256</v>
@@ -6452,7 +6453,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <f t="shared" ref="A83:A94" si="3">EDATE(A82,1)</f>
         <v>44287</v>
@@ -6477,7 +6478,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>112</v>
@@ -6499,7 +6500,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
@@ -6517,7 +6518,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <f>EDATE(A83,1)</f>
         <v>44317</v>
@@ -6542,7 +6543,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13">
@@ -6560,7 +6561,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <f>EDATE(A86,1)</f>
         <v>44348</v>
@@ -6585,7 +6586,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f t="shared" si="3"/>
         <v>44378</v>
@@ -6610,7 +6611,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f t="shared" si="3"/>
         <v>44409</v>
@@ -6635,7 +6636,7 @@
         <v>37142</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>117</v>
@@ -6657,7 +6658,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f>EDATE(A90,1)</f>
         <v>44440</v>
@@ -6678,7 +6679,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <f t="shared" si="3"/>
         <v>44470</v>
@@ -6703,7 +6704,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f t="shared" si="3"/>
         <v>44501</v>
@@ -6728,7 +6729,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>76</v>
@@ -6748,7 +6749,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>120</v>
@@ -6770,7 +6771,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f>EDATE(A94,1)</f>
         <v>44531</v>
@@ -6795,7 +6796,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="48" t="s">
         <v>123</v>
       </c>
@@ -6813,7 +6814,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>37257</v>
       </c>
@@ -6835,7 +6836,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>44</v>
@@ -6857,7 +6858,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13">
@@ -6875,7 +6876,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <f>EDATE(A99,1)</f>
         <v>37288</v>
@@ -6900,7 +6901,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>127</v>
@@ -6922,7 +6923,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f>EDATE(A102,1)</f>
         <v>37316</v>
@@ -6947,7 +6948,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>44</v>
@@ -6969,7 +6970,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>130</v>
@@ -6991,7 +6992,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f>EDATE(A104,1)</f>
         <v>37347</v>
@@ -7016,7 +7017,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>44</v>
@@ -7038,7 +7039,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>116</v>
@@ -7060,7 +7061,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <f>EDATE(A107,1)</f>
         <v>37377</v>
@@ -7085,7 +7086,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>44</v>
@@ -7107,7 +7108,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>90</v>
@@ -7129,7 +7130,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f>EDATE(A110,1)</f>
         <v>37408</v>
@@ -7152,7 +7153,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>78</v>
@@ -7174,7 +7175,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>37438</v>
@@ -7199,7 +7200,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <f t="shared" ref="A116" si="4">EDATE(A115,1)</f>
         <v>37469</v>
@@ -7224,7 +7225,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>51</v>
@@ -7246,7 +7247,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>139</v>
@@ -7268,7 +7269,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f>EDATE(A116,1)</f>
         <v>37500</v>
@@ -7293,7 +7294,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13">
@@ -7311,7 +7312,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f>EDATE(A119,1)</f>
         <v>37530</v>
@@ -7336,7 +7337,7 @@
         <v>37356</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13">
@@ -7354,7 +7355,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f>EDATE(A121,1)</f>
         <v>37561</v>
@@ -7379,7 +7380,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>44</v>
@@ -7401,7 +7402,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>87</v>
@@ -7423,7 +7424,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f>EDATE(A123,1)</f>
         <v>37591</v>
@@ -7448,7 +7449,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>144</v>
@@ -7470,7 +7471,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="48" t="s">
         <v>145</v>
       </c>
@@ -7488,7 +7489,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>37622</v>
       </c>
@@ -7510,7 +7511,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>147</v>
@@ -7532,7 +7533,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f>EDATE(A129,1)</f>
         <v>37653</v>
@@ -7557,7 +7558,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f t="shared" ref="A132:A149" si="5">EDATE(A131,1)</f>
         <v>37681</v>
@@ -7582,7 +7583,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>44</v>
@@ -7604,7 +7605,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>151</v>
@@ -7626,7 +7627,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <f>EDATE(A132,1)</f>
         <v>37712</v>
@@ -7651,7 +7652,7 @@
         <v>37868</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>152</v>
@@ -7673,7 +7674,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <f>EDATE(A135,1)</f>
         <v>37742</v>
@@ -7698,7 +7699,7 @@
         <v>37777</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>44</v>
@@ -7720,7 +7721,7 @@
         <v>37960</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>76</v>
@@ -7740,7 +7741,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13">
@@ -7758,7 +7759,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <f>EDATE(A137,1)</f>
         <v>37773</v>
@@ -7783,7 +7784,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>44</v>
@@ -7805,7 +7806,7 @@
         <v>37870</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>155</v>
@@ -7827,7 +7828,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f>EDATE(A141,1)</f>
         <v>37803</v>
@@ -7852,7 +7853,7 @@
         <v>37659</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>156</v>
@@ -7874,7 +7875,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f>EDATE(A144,1)</f>
         <v>37834</v>
@@ -7899,7 +7900,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13">
@@ -7917,7 +7918,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f>EDATE(A146,1)</f>
         <v>37865</v>
@@ -7942,7 +7943,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <f t="shared" si="5"/>
         <v>37895</v>
@@ -7967,7 +7968,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>159</v>
@@ -7989,7 +7990,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f>EDATE(A149,1)</f>
         <v>37926</v>
@@ -8014,7 +8015,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>161</v>
@@ -8036,7 +8037,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <f>EDATE(A151,1)</f>
         <v>37956</v>
@@ -8061,7 +8062,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>102</v>
@@ -8083,7 +8084,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>164</v>
@@ -8105,7 +8106,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>165</v>
@@ -8125,7 +8126,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="48" t="s">
         <v>166</v>
       </c>
@@ -8143,7 +8144,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>37987</v>
       </c>
@@ -8165,7 +8166,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>44</v>
@@ -8187,7 +8188,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>76</v>
@@ -8207,7 +8208,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>167</v>
@@ -8229,7 +8230,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <f>EDATE(A158,1)</f>
         <v>38018</v>
@@ -8254,7 +8255,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <f t="shared" ref="A163" si="6">EDATE(A162,1)</f>
         <v>38047</v>
@@ -8279,7 +8280,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>44</v>
@@ -8301,7 +8302,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>44</v>
@@ -8323,7 +8324,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>175</v>
@@ -8345,7 +8346,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <f>EDATE(A163,1)</f>
         <v>38078</v>
@@ -8370,7 +8371,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>178</v>
@@ -8392,7 +8393,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <f>EDATE(A167,1)</f>
         <v>38108</v>
@@ -8417,7 +8418,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>180</v>
@@ -8439,7 +8440,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f>EDATE(A169,1)</f>
         <v>38139</v>
@@ -8464,7 +8465,7 @@
         <v>38174</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>44</v>
@@ -8486,7 +8487,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>44</v>
@@ -8508,7 +8509,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>183</v>
@@ -8530,7 +8531,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <f>EDATE(A171,1)</f>
         <v>38169</v>
@@ -8555,7 +8556,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>44</v>
@@ -8577,7 +8578,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>186</v>
@@ -8599,7 +8600,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <f>EDATE(A175,1)</f>
         <v>38200</v>
@@ -8624,7 +8625,7 @@
         <v>38238</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>44</v>
@@ -8646,7 +8647,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>53</v>
@@ -8668,7 +8669,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <f>EDATE(A178,1)</f>
         <v>38231</v>
@@ -8693,7 +8694,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>189</v>
@@ -8715,7 +8716,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f>EDATE(A181,1)</f>
         <v>38261</v>
@@ -8740,7 +8741,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>44</v>
@@ -8762,7 +8763,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>191</v>
@@ -8784,7 +8785,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f>EDATE(A183,1)</f>
         <v>38292</v>
@@ -8809,7 +8810,7 @@
         <v>38057</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>44</v>
@@ -8831,7 +8832,7 @@
         <v>37998</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>193</v>
@@ -8853,7 +8854,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <f>EDATE(A186,1)</f>
         <v>38322</v>
@@ -8878,7 +8879,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>195</v>
@@ -8900,7 +8901,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="48" t="s">
         <v>196</v>
       </c>
@@ -8918,7 +8919,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <v>38353</v>
       </c>
@@ -8942,7 +8943,7 @@
         <v>38412</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>76</v>
@@ -8962,7 +8963,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>44</v>
@@ -8984,7 +8985,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>70</v>
@@ -9006,7 +9007,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>200</v>
@@ -9028,7 +9029,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <f>EDATE(A192,1)</f>
         <v>38384</v>
@@ -9053,7 +9054,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>44</v>
@@ -9075,7 +9076,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>206</v>
@@ -9097,7 +9098,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <f>EDATE(A197,1)</f>
         <v>38412</v>
@@ -9120,7 +9121,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>44</v>
@@ -9142,7 +9143,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>76</v>
@@ -9162,7 +9163,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>212</v>
@@ -9184,7 +9185,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>51</v>
@@ -9206,7 +9207,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <f>EDATE(A200,1)</f>
         <v>38443</v>
@@ -9231,7 +9232,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>209</v>
@@ -9253,7 +9254,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <f>EDATE(A205,1)</f>
         <v>38473</v>
@@ -9278,7 +9279,7 @@
         <v>38600</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>51</v>
@@ -9300,7 +9301,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>51</v>
@@ -9322,7 +9323,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>213</v>
@@ -9344,7 +9345,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <f>EDATE(A207,1)</f>
         <v>38504</v>
@@ -9369,7 +9370,7 @@
         <v>38539</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>102</v>
@@ -9391,7 +9392,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>70</v>
@@ -9413,7 +9414,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>215</v>
@@ -9435,7 +9436,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <f>EDATE(A211,1)</f>
         <v>38534</v>
@@ -9460,7 +9461,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>218</v>
@@ -9482,7 +9483,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <f>EDATE(A215,1)</f>
         <v>38565</v>
@@ -9507,7 +9508,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>220</v>
@@ -9529,7 +9530,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <f>EDATE(A217,1)</f>
         <v>38596</v>
@@ -9554,7 +9555,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f t="shared" ref="A220" si="7">EDATE(A219,1)</f>
         <v>38626</v>
@@ -9579,7 +9580,7 @@
         <v>38696</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>44</v>
@@ -9601,7 +9602,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>223</v>
@@ -9621,7 +9622,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <f>EDATE(A220,1)</f>
         <v>38657</v>
@@ -9646,7 +9647,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>225</v>
@@ -9668,7 +9669,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <f>EDATE(A223,1)</f>
         <v>38687</v>
@@ -9693,7 +9694,7 @@
         <v>38698</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>164</v>
@@ -9715,7 +9716,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>227</v>
@@ -9737,7 +9738,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="48" t="s">
         <v>228</v>
       </c>
@@ -9755,7 +9756,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>38718</v>
       </c>
@@ -9779,7 +9780,7 @@
         <v>38961</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>76</v>
@@ -9799,7 +9800,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>44</v>
@@ -9821,7 +9822,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>76</v>
@@ -9841,7 +9842,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>229</v>
@@ -9863,7 +9864,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <f>EDATE(A229,1)</f>
         <v>38749</v>
@@ -9888,7 +9889,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>234</v>
@@ -9910,7 +9911,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f>EDATE(A234,1)</f>
         <v>38777</v>
@@ -9935,7 +9936,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>76</v>
@@ -9955,7 +9956,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>44</v>
@@ -9977,7 +9978,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>238</v>
@@ -9999,7 +10000,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f>EDATE(A236,1)</f>
         <v>38808</v>
@@ -10024,7 +10025,7 @@
         <v>38902</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20"/>
       <c r="C241" s="13">
@@ -10042,7 +10043,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>44</v>
@@ -10064,7 +10065,7 @@
         <v>38812</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>44</v>
@@ -10086,7 +10087,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>44</v>
@@ -10108,7 +10109,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>239</v>
@@ -10128,7 +10129,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <f>EDATE(A240,1)</f>
         <v>38838</v>
@@ -10153,7 +10154,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <f t="shared" ref="A247:A258" si="8">EDATE(A246,1)</f>
         <v>38869</v>
@@ -10178,7 +10179,7 @@
         <v>38723</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>44</v>
@@ -10200,7 +10201,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>244</v>
@@ -10222,7 +10223,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f>EDATE(A247,1)</f>
         <v>38899</v>
@@ -10247,7 +10248,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>247</v>
@@ -10269,7 +10270,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <f>EDATE(A250,1)</f>
         <v>38930</v>
@@ -10294,7 +10295,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>44</v>
@@ -10316,7 +10317,7 @@
         <v>38877</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>44</v>
@@ -10338,7 +10339,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>250</v>
@@ -10360,7 +10361,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f>EDATE(A252,1)</f>
         <v>38961</v>
@@ -10385,7 +10386,7 @@
       <c r="J256" s="12"/>
       <c r="K256" s="15"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <f t="shared" si="8"/>
         <v>38991</v>
@@ -10410,7 +10411,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <f t="shared" si="8"/>
         <v>39022</v>
@@ -10435,7 +10436,7 @@
         <v>38940</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>254</v>
@@ -10457,7 +10458,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f>EDATE(A258,1)</f>
         <v>39052</v>
@@ -10482,7 +10483,7 @@
         <v>39033</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>44</v>
@@ -10504,7 +10505,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>256</v>
@@ -10526,7 +10527,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="48" t="s">
         <v>257</v>
       </c>
@@ -10544,7 +10545,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <v>39083</v>
       </c>
@@ -10568,7 +10569,7 @@
         <v>39114</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>76</v>
@@ -10588,7 +10589,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>76</v>
@@ -10608,7 +10609,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>70</v>
@@ -10630,7 +10631,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>261</v>
@@ -10652,7 +10653,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>51</v>
@@ -10674,7 +10675,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>264</v>
@@ -10696,7 +10697,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <f>EDATE(A264,1)</f>
         <v>39114</v>
@@ -10721,7 +10722,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f t="shared" ref="A272:A284" si="9">EDATE(A271,1)</f>
         <v>39142</v>
@@ -10746,7 +10747,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>267</v>
@@ -10768,7 +10769,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <f>EDATE(A272,1)</f>
         <v>39173</v>
@@ -10793,7 +10794,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>270</v>
@@ -10815,7 +10816,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <f>EDATE(A274,1)</f>
         <v>39203</v>
@@ -10840,7 +10841,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <f t="shared" si="9"/>
         <v>39234</v>
@@ -10865,7 +10866,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20"/>
       <c r="C278" s="13">
@@ -10883,7 +10884,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <f>EDATE(A277,1)</f>
         <v>39264</v>
@@ -10904,7 +10905,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <f t="shared" si="9"/>
         <v>39295</v>
@@ -10925,7 +10926,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <f t="shared" si="9"/>
         <v>39326</v>
@@ -10946,7 +10947,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f t="shared" si="9"/>
         <v>39356</v>
@@ -10967,7 +10968,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <f t="shared" si="9"/>
         <v>39387</v>
@@ -10988,7 +10989,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <f t="shared" si="9"/>
         <v>39417</v>
@@ -11013,7 +11014,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="48" t="s">
         <v>273</v>
       </c>
@@ -11031,7 +11032,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>39448</v>
       </c>
@@ -11053,7 +11054,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>44</v>
@@ -11073,7 +11074,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>276</v>
@@ -11095,7 +11096,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <f>EDATE(A286,1)</f>
         <v>39479</v>
@@ -11120,7 +11121,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <f t="shared" ref="A290:A312" si="10">EDATE(A289,1)</f>
         <v>39508</v>
@@ -11145,7 +11146,7 @@
         <v>39755</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>44</v>
@@ -11167,7 +11168,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>76</v>
@@ -11187,7 +11188,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>280</v>
@@ -11209,7 +11210,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <f>EDATE(A290,1)</f>
         <v>39539</v>
@@ -11234,7 +11235,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>282</v>
@@ -11256,7 +11257,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <f>EDATE(A294,1)</f>
         <v>39569</v>
@@ -11281,7 +11282,7 @@
         <v>39665</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>44</v>
@@ -11303,7 +11304,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>283</v>
@@ -11325,7 +11326,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <f>EDATE(A296,1)</f>
         <v>39600</v>
@@ -11350,7 +11351,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>164</v>
@@ -11372,7 +11373,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>287</v>
@@ -11394,7 +11395,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <f>EDATE(A299,1)</f>
         <v>39630</v>
@@ -11419,7 +11420,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>180</v>
@@ -11441,7 +11442,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <f>EDATE(A302,1)</f>
         <v>39661</v>
@@ -11466,7 +11467,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>44</v>
@@ -11488,7 +11489,7 @@
         <v>39456</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>290</v>
@@ -11510,7 +11511,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <f>EDATE(A304,1)</f>
         <v>39692</v>
@@ -11535,7 +11536,7 @@
         <v>39791</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>44</v>
@@ -11557,7 +11558,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>44</v>
@@ -11579,7 +11580,7 @@
         <v>39670</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>292</v>
@@ -11601,7 +11602,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <f>EDATE(A307,1)</f>
         <v>39722</v>
@@ -11626,7 +11627,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <f t="shared" si="10"/>
         <v>39753</v>
@@ -11651,7 +11652,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>51</v>
@@ -11673,7 +11674,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>296</v>
@@ -11695,7 +11696,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <f>EDATE(A312,1)</f>
         <v>39783</v>
@@ -11718,7 +11719,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>298</v>
@@ -11740,7 +11741,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="48" t="s">
         <v>299</v>
       </c>
@@ -11758,7 +11759,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>39814</v>
       </c>
@@ -11780,7 +11781,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>44</v>
@@ -11802,7 +11803,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>302</v>
@@ -11824,7 +11825,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <f>EDATE(A318,1)</f>
         <v>39845</v>
@@ -11849,7 +11850,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f t="shared" ref="A322" si="11">EDATE(A321,1)</f>
         <v>39873</v>
@@ -11874,7 +11875,7 @@
         <v>40150</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>76</v>
@@ -11894,7 +11895,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>305</v>
@@ -11916,7 +11917,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f>EDATE(A322,1)</f>
         <v>39904</v>
@@ -11941,7 +11942,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>44</v>
@@ -11963,7 +11964,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>308</v>
@@ -11985,7 +11986,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <f>EDATE(A325,1)</f>
         <v>39934</v>
@@ -12010,7 +12011,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>310</v>
@@ -12032,7 +12033,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <f>EDATE(A328,1)</f>
         <v>39965</v>
@@ -12057,7 +12058,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>44</v>
@@ -12079,7 +12080,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>76</v>
@@ -12099,7 +12100,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>44</v>
@@ -12121,7 +12122,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>315</v>
@@ -12143,7 +12144,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <f>EDATE(A330,1)</f>
         <v>39995</v>
@@ -12168,7 +12169,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>317</v>
@@ -12190,7 +12191,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <f>EDATE(A335,1)</f>
         <v>40026</v>
@@ -12215,7 +12216,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>44</v>
@@ -12237,7 +12238,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>320</v>
@@ -12259,7 +12260,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <f>EDATE(A337,1)</f>
         <v>40057</v>
@@ -12284,7 +12285,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>321</v>
@@ -12306,7 +12307,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <f>EDATE(A340,1)</f>
         <v>40087</v>
@@ -12331,7 +12332,7 @@
         <v>40157</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>44</v>
@@ -12353,7 +12354,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>327</v>
@@ -12375,7 +12376,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <f>EDATE(A342,1)</f>
         <v>40118</v>
@@ -12398,7 +12399,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>325</v>
@@ -12422,7 +12423,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>324</v>
@@ -12444,7 +12445,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <f>EDATE(A345,1)</f>
         <v>40148</v>
@@ -12469,7 +12470,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>329</v>
@@ -12491,7 +12492,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>325</v>
@@ -12515,7 +12516,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>331</v>
@@ -12537,7 +12538,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="48" t="s">
         <v>333</v>
       </c>
@@ -12555,7 +12556,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>40179</v>
       </c>
@@ -12577,7 +12578,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>76</v>
@@ -12597,7 +12598,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>336</v>
@@ -12619,7 +12620,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <f>EDATE(A353,1)</f>
         <v>40210</v>
@@ -12644,7 +12645,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>337</v>
@@ -12666,7 +12667,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <f>EDATE(A356,1)</f>
         <v>40238</v>
@@ -12693,7 +12694,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>76</v>
@@ -12713,7 +12714,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>337</v>
@@ -12733,7 +12734,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <f>EDATE(A358,1)</f>
         <v>40269</v>
@@ -12760,7 +12761,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>325</v>
@@ -12782,7 +12783,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>343</v>
@@ -12804,7 +12805,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>44</v>
@@ -12826,7 +12827,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>70</v>
@@ -12848,7 +12849,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>110</v>
@@ -12870,7 +12871,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>347</v>
@@ -12892,7 +12893,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <f>EDATE(A361,1)</f>
         <v>40299</v>
@@ -12917,7 +12918,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <f t="shared" ref="A369" si="12">EDATE(A368,1)</f>
         <v>40330</v>
@@ -12942,7 +12943,7 @@
         <v>40365</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>70</v>
@@ -12964,7 +12965,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>350</v>
@@ -12986,7 +12987,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <f>EDATE(A369,1)</f>
         <v>40360</v>
@@ -13011,7 +13012,7 @@
         <v>40275</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>351</v>
@@ -13033,7 +13034,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <f>EDATE(A372,1)</f>
         <v>40391</v>
@@ -13058,7 +13059,7 @@
         <v>40337</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>44</v>
@@ -13080,7 +13081,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>353</v>
@@ -13102,7 +13103,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <f>EDATE(A374,1)</f>
         <v>40422</v>
@@ -13127,7 +13128,7 @@
         <v>40430</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20"/>
       <c r="C378" s="13">
@@ -13145,7 +13146,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <f>EDATE(A377,1)</f>
         <v>40452</v>
@@ -13170,7 +13171,7 @@
         <v>40278</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13">
@@ -13188,7 +13189,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <f>EDATE(A379,1)</f>
         <v>40483</v>
@@ -13213,7 +13214,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <f>EDATE(A381,1)</f>
         <v>40513</v>
@@ -13238,7 +13239,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="48" t="s">
         <v>356</v>
       </c>
@@ -13256,7 +13257,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <v>40544</v>
       </c>
@@ -13278,7 +13279,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>44</v>
@@ -13300,7 +13301,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>359</v>
@@ -13322,7 +13323,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <f>EDATE(A384,1)</f>
         <v>40575</v>
@@ -13347,7 +13348,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <f t="shared" ref="A388:A410" si="13">EDATE(A387,1)</f>
         <v>40603</v>
@@ -13372,7 +13373,7 @@
         <v>40636</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>44</v>
@@ -13394,7 +13395,7 @@
         <v>40698</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>361</v>
@@ -13416,7 +13417,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <f>EDATE(A388,1)</f>
         <v>40634</v>
@@ -13441,7 +13442,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>70</v>
@@ -13463,7 +13464,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>325</v>
@@ -13485,7 +13486,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>362</v>
@@ -13505,7 +13506,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <f>EDATE(A391,1)</f>
         <v>40664</v>
@@ -13532,7 +13533,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="64" t="s">
         <v>548</v>
@@ -13552,7 +13553,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>367</v>
@@ -13574,7 +13575,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13">
@@ -13592,7 +13593,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <f>EDATE(A395,1)</f>
         <v>40695</v>
@@ -13613,7 +13614,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <f t="shared" si="13"/>
         <v>40725</v>
@@ -13638,7 +13639,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <f t="shared" si="13"/>
         <v>40756</v>
@@ -13663,7 +13664,7 @@
         <v>40855</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>44</v>
@@ -13685,7 +13686,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>44</v>
@@ -13707,7 +13708,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>372</v>
@@ -13729,7 +13730,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <f>EDATE(A401,1)</f>
         <v>40787</v>
@@ -13754,7 +13755,7 @@
         <v>40886</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>51</v>
@@ -13776,7 +13777,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>373</v>
@@ -13798,7 +13799,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <f>EDATE(A405,1)</f>
         <v>40817</v>
@@ -13823,7 +13824,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <f t="shared" si="13"/>
         <v>40848</v>
@@ -13848,7 +13849,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <f t="shared" si="13"/>
         <v>40878</v>
@@ -13873,7 +13874,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>378</v>
@@ -13895,7 +13896,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="48" t="s">
         <v>379</v>
       </c>
@@ -13913,7 +13914,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>40909</v>
       </c>
@@ -13935,7 +13936,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>51</v>
@@ -13957,7 +13958,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>44</v>
@@ -13979,7 +13980,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>383</v>
@@ -14001,7 +14002,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <f>EDATE(A413,1)</f>
         <v>40940</v>
@@ -14026,7 +14027,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <f t="shared" ref="A418:A437" si="14">EDATE(A417,1)</f>
         <v>40969</v>
@@ -14051,7 +14052,7 @@
         <v>41216</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>44</v>
@@ -14073,7 +14074,7 @@
         <v>11018</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>385</v>
@@ -14095,7 +14096,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <f>EDATE(A418,1)</f>
         <v>41000</v>
@@ -14120,7 +14121,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>387</v>
@@ -14142,7 +14143,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <f>EDATE(A421,1)</f>
         <v>41030</v>
@@ -14169,7 +14170,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>44</v>
@@ -14191,7 +14192,7 @@
         <v>40914</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>389</v>
@@ -14211,7 +14212,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>391</v>
@@ -14233,7 +14234,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <f>EDATE(A423,1)</f>
         <v>41061</v>
@@ -14260,7 +14261,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>392</v>
@@ -14282,7 +14283,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <f>EDATE(A427,1)</f>
         <v>41091</v>
@@ -14307,7 +14308,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>395</v>
@@ -14329,7 +14330,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <f>EDATE(A429,1)</f>
         <v>41122</v>
@@ -14354,7 +14355,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <f t="shared" si="14"/>
         <v>41153</v>
@@ -14379,7 +14380,7 @@
         <v>41099</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>44</v>
@@ -14401,7 +14402,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>44</v>
@@ -14421,7 +14422,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>397</v>
@@ -14443,7 +14444,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <f>EDATE(A432,1)</f>
         <v>41183</v>
@@ -14468,7 +14469,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <f t="shared" si="14"/>
         <v>41214</v>
@@ -14493,7 +14494,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>401</v>
@@ -14515,7 +14516,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <f>EDATE(A437,1)</f>
         <v>41244</v>
@@ -14540,7 +14541,7 @@
         <v>41041</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>44</v>
@@ -14562,7 +14563,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>402</v>
@@ -14584,7 +14585,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="48" t="s">
         <v>380</v>
       </c>
@@ -14602,7 +14603,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>41275</v>
       </c>
@@ -14624,7 +14625,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>405</v>
@@ -14646,7 +14647,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <f>EDATE(A443,1)</f>
         <v>41306</v>
@@ -14669,7 +14670,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>164</v>
@@ -14691,7 +14692,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>409</v>
@@ -14713,7 +14714,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <f>EDATE(A445,1)</f>
         <v>41334</v>
@@ -14738,7 +14739,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>411</v>
@@ -14760,7 +14761,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <f>EDATE(A448,1)</f>
         <v>41365</v>
@@ -14785,7 +14786,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <f t="shared" ref="A451:A467" si="15">EDATE(A450,1)</f>
         <v>41395</v>
@@ -14810,7 +14811,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>44</v>
@@ -14832,7 +14833,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>415</v>
@@ -14854,7 +14855,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <f>EDATE(A451,1)</f>
         <v>41426</v>
@@ -14879,7 +14880,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>354</v>
@@ -14901,7 +14902,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <f>EDATE(A454,1)</f>
         <v>41456</v>
@@ -14926,7 +14927,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>44</v>
@@ -14948,7 +14949,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>44</v>
@@ -14970,7 +14971,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>420</v>
@@ -14992,7 +14993,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <f>EDATE(A456,1)</f>
         <v>41487</v>
@@ -15017,7 +15018,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>422</v>
@@ -15039,7 +15040,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>424</v>
@@ -15061,7 +15062,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <f>EDATE(A460,1)</f>
         <v>41518</v>
@@ -15086,7 +15087,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <f t="shared" si="15"/>
         <v>41548</v>
@@ -15111,7 +15112,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>427</v>
@@ -15133,7 +15134,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <f>EDATE(A464,1)</f>
         <v>41579</v>
@@ -15158,7 +15159,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <f t="shared" si="15"/>
         <v>41609</v>
@@ -15183,7 +15184,7 @@
         <v>41620</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>428</v>
@@ -15205,7 +15206,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="48" t="s">
         <v>429</v>
       </c>
@@ -15223,7 +15224,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>41640</v>
       </c>
@@ -15245,7 +15246,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>80</v>
@@ -15267,7 +15268,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>435</v>
@@ -15289,7 +15290,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <f>EDATE(A470,1)</f>
         <v>41671</v>
@@ -15314,7 +15315,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>438</v>
@@ -15336,7 +15337,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <f>EDATE(A473,1)</f>
         <v>41699</v>
@@ -15361,7 +15362,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>76</v>
@@ -15381,7 +15382,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>441</v>
@@ -15403,7 +15404,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <f>EDATE(A475,1)</f>
         <v>41730</v>
@@ -15428,7 +15429,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>443</v>
@@ -15450,7 +15451,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <f>EDATE(A478,1)</f>
         <v>41760</v>
@@ -15475,7 +15476,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>51</v>
@@ -15497,7 +15498,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>445</v>
@@ -15519,7 +15520,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <f>EDATE(A480,1)</f>
         <v>41791</v>
@@ -15544,7 +15545,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <f t="shared" ref="A484:A489" si="16">EDATE(A483,1)</f>
         <v>41821</v>
@@ -15569,7 +15570,7 @@
         <v>41646</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>44</v>
@@ -15591,7 +15592,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>449</v>
@@ -15613,7 +15614,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <f>EDATE(A484,1)</f>
         <v>41852</v>
@@ -15638,7 +15639,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <f t="shared" si="16"/>
         <v>41883</v>
@@ -15663,7 +15664,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <f t="shared" si="16"/>
         <v>41913</v>
@@ -15688,7 +15689,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>452</v>
@@ -15710,7 +15711,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <f>EDATE(A489,1)</f>
         <v>41944</v>
@@ -15735,7 +15736,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <f>EDATE(A491,1)</f>
         <v>41974</v>
@@ -15760,7 +15761,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>350</v>
@@ -15782,7 +15783,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="48" t="s">
         <v>430</v>
       </c>
@@ -15800,7 +15801,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>42005</v>
       </c>
@@ -15824,7 +15825,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>76</v>
@@ -15844,7 +15845,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20"/>
       <c r="C497" s="13">
@@ -15862,7 +15863,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <f>EDATE(A495,1)</f>
         <v>42036</v>
@@ -15887,7 +15888,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40"/>
       <c r="B499" s="20"/>
       <c r="C499" s="13">
@@ -15905,7 +15906,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <f>EDATE(A498,1)</f>
         <v>42064</v>
@@ -15930,7 +15931,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>44</v>
@@ -15952,7 +15953,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40"/>
       <c r="B502" s="20"/>
       <c r="C502" s="13">
@@ -15970,7 +15971,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <f>EDATE(A500,1)</f>
         <v>42095</v>
@@ -15991,7 +15992,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <f t="shared" ref="A504:A518" si="17">EDATE(A503,1)</f>
         <v>42125</v>
@@ -16012,7 +16013,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <f t="shared" si="17"/>
         <v>42156</v>
@@ -16037,7 +16038,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40"/>
       <c r="B506" s="20"/>
       <c r="C506" s="13">
@@ -16055,7 +16056,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <f>EDATE(A505,1)</f>
         <v>42186</v>
@@ -16080,7 +16081,7 @@
         <v>42284</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>44</v>
@@ -16102,7 +16103,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40"/>
       <c r="B509" s="20"/>
       <c r="C509" s="13">
@@ -16120,7 +16121,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <f>EDATE(A507,1)</f>
         <v>42217</v>
@@ -16141,7 +16142,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <f t="shared" si="17"/>
         <v>42248</v>
@@ -16166,7 +16167,7 @@
         <v>42256</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40"/>
       <c r="B512" s="20"/>
       <c r="C512" s="13">
@@ -16184,7 +16185,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <f>EDATE(A511,1)</f>
         <v>42278</v>
@@ -16209,7 +16210,7 @@
         <v>42226</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>55</v>
@@ -16231,7 +16232,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>44</v>
@@ -16253,7 +16254,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40"/>
       <c r="B516" s="20"/>
       <c r="C516" s="13">
@@ -16271,7 +16272,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <f>EDATE(A513,1)</f>
         <v>42309</v>
@@ -16292,7 +16293,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <f t="shared" si="17"/>
         <v>42339</v>
@@ -16317,7 +16318,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="48" t="s">
         <v>431</v>
       </c>
@@ -16335,7 +16336,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>42370</v>
       </c>
@@ -16357,7 +16358,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>465</v>
@@ -16379,7 +16380,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <f>EDATE(A520,1)</f>
         <v>42401</v>
@@ -16404,7 +16405,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>51</v>
@@ -16426,7 +16427,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
         <v>468</v>
@@ -16448,7 +16449,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <f>EDATE(A522,1)</f>
         <v>42430</v>
@@ -16473,7 +16474,7 @@
         <v>42432</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>469</v>
@@ -16495,7 +16496,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <f>EDATE(A525,1)</f>
         <v>42461</v>
@@ -16520,7 +16521,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>406</v>
@@ -16540,7 +16541,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>55</v>
@@ -16562,7 +16563,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>473</v>
@@ -16584,7 +16585,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <f>EDATE(A527,1)</f>
         <v>42491</v>
@@ -16609,7 +16610,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <f t="shared" ref="A532:A541" si="18">EDATE(A531,1)</f>
         <v>42522</v>
@@ -16634,7 +16635,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>44</v>
@@ -16656,7 +16657,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>51</v>
@@ -16678,7 +16679,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
         <v>477</v>
@@ -16700,7 +16701,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <f>EDATE(A532,1)</f>
         <v>42552</v>
@@ -16725,7 +16726,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>479</v>
@@ -16747,7 +16748,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <f>EDATE(A536,1)</f>
         <v>42583</v>
@@ -16772,7 +16773,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>482</v>
@@ -16794,7 +16795,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <f>EDATE(A538,1)</f>
         <v>42614</v>
@@ -16819,7 +16820,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <f t="shared" si="18"/>
         <v>42644</v>
@@ -16844,7 +16845,7 @@
         <v>42411</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>484</v>
@@ -16866,7 +16867,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <f>EDATE(A541,1)</f>
         <v>42675</v>
@@ -16891,7 +16892,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <f>EDATE(A543,1)</f>
         <v>42705</v>
@@ -16916,7 +16917,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40"/>
       <c r="B545" s="20"/>
       <c r="C545" s="13">
@@ -16934,7 +16935,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="48" t="s">
         <v>432</v>
       </c>
@@ -16952,7 +16953,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>42736</v>
       </c>
@@ -16974,7 +16975,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>44</v>
@@ -16996,7 +16997,7 @@
         <v>42768</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>302</v>
@@ -17018,7 +17019,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <f>EDATE(A547,1)</f>
         <v>42767</v>
@@ -17043,7 +17044,7 @@
         <v>42888</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40"/>
       <c r="B551" s="20"/>
       <c r="C551" s="13">
@@ -17061,7 +17062,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <f>EDATE(A550,1)</f>
         <v>42795</v>
@@ -17084,7 +17085,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>489</v>
@@ -17106,7 +17107,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <f>EDATE(A552,1)</f>
         <v>42826</v>
@@ -17131,7 +17132,7 @@
         <v>42829</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>51</v>
@@ -17153,7 +17154,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>369</v>
@@ -17175,7 +17176,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <f>EDATE(A554,1)</f>
         <v>42856</v>
@@ -17200,7 +17201,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>44</v>
@@ -17222,7 +17223,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>453</v>
@@ -17244,7 +17245,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <f>EDATE(A557,1)</f>
         <v>42887</v>
@@ -17269,7 +17270,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>44</v>
@@ -17291,7 +17292,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>44</v>
@@ -17313,7 +17314,7 @@
         <v>42923</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>495</v>
@@ -17335,7 +17336,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <f>EDATE(A560,1)</f>
         <v>42917</v>
@@ -17360,7 +17361,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <f t="shared" ref="A565:A570" si="19">EDATE(A564,1)</f>
         <v>42948</v>
@@ -17385,7 +17386,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <f t="shared" si="19"/>
         <v>42979</v>
@@ -17410,7 +17411,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
         <v>44</v>
@@ -17432,7 +17433,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>453</v>
@@ -17454,7 +17455,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <f>EDATE(A566,1)</f>
         <v>43009</v>
@@ -17479,7 +17480,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <f t="shared" si="19"/>
         <v>43040</v>
@@ -17500,7 +17501,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <f>EDATE(A570,1)</f>
         <v>43070</v>
@@ -17525,7 +17526,7 @@
         <v>42867</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>245</v>
@@ -17547,7 +17548,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="48" t="s">
         <v>433</v>
       </c>
@@ -17565,7 +17566,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
         <v>43101</v>
       </c>
@@ -17589,7 +17590,7 @@
         <v>43313</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>76</v>
@@ -17609,7 +17610,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40"/>
       <c r="B576" s="20" t="s">
         <v>70</v>
@@ -17631,7 +17632,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13">
@@ -17649,7 +17650,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40">
         <f>EDATE(A574,1)</f>
         <v>43132</v>
@@ -17674,7 +17675,7 @@
         <v>43345</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13">
@@ -17692,7 +17693,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
         <f>EDATE(A578,1)</f>
         <v>43160</v>
@@ -17717,7 +17718,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13">
@@ -17735,7 +17736,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
         <f>EDATE(A580,1)</f>
         <v>43191</v>
@@ -17756,7 +17757,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
         <f t="shared" ref="A583:A598" si="20">EDATE(A582,1)</f>
         <v>43221</v>
@@ -17779,7 +17780,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
         <v>51</v>
@@ -17801,7 +17802,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40"/>
       <c r="B585" s="20" t="s">
         <v>51</v>
@@ -17823,7 +17824,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40"/>
       <c r="B586" s="20" t="s">
         <v>499</v>
@@ -17845,7 +17846,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
         <f>EDATE(A583,1)</f>
         <v>43252</v>
@@ -17870,7 +17871,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
         <v>507</v>
@@ -17892,7 +17893,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <f>EDATE(A587,1)</f>
         <v>43282</v>
@@ -17917,7 +17918,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
         <v>44</v>
@@ -17939,7 +17940,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>55</v>
@@ -17961,7 +17962,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
         <v>45</v>
@@ -17983,7 +17984,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
         <f>EDATE(A589,1)</f>
         <v>43313</v>
@@ -18008,7 +18009,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
         <f t="shared" si="20"/>
         <v>43344</v>
@@ -18033,7 +18034,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40"/>
       <c r="B595" s="20" t="s">
         <v>51</v>
@@ -18055,7 +18056,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40"/>
       <c r="B596" s="20" t="s">
         <v>512</v>
@@ -18077,7 +18078,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
         <f>EDATE(A594,1)</f>
         <v>43374</v>
@@ -18102,7 +18103,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40">
         <f t="shared" si="20"/>
         <v>43405</v>
@@ -18127,7 +18128,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40"/>
       <c r="B599" s="20" t="s">
         <v>44</v>
@@ -18149,7 +18150,7 @@
         <v>43323</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40"/>
       <c r="B600" s="20" t="s">
         <v>44</v>
@@ -18171,7 +18172,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>512</v>
@@ -18193,7 +18194,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
         <f>EDATE(A598,1)</f>
         <v>43435</v>
@@ -18218,7 +18219,7 @@
         <v>43416</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40"/>
       <c r="B603" s="20" t="s">
         <v>517</v>
@@ -18240,7 +18241,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="48" t="s">
         <v>518</v>
       </c>
@@ -18258,7 +18259,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
         <v>43466</v>
       </c>
@@ -18280,7 +18281,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40"/>
       <c r="B606" s="20" t="s">
         <v>70</v>
@@ -18302,7 +18303,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40"/>
       <c r="B607" s="20" t="s">
         <v>49</v>
@@ -18324,7 +18325,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40">
         <f>EDATE(A605,1)</f>
         <v>43497</v>
@@ -18345,7 +18346,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <f t="shared" ref="A609:A629" si="21">EDATE(A608,1)</f>
         <v>43525</v>
@@ -18370,7 +18371,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
         <v>44</v>
@@ -18392,7 +18393,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40"/>
       <c r="B611" s="20" t="s">
         <v>44</v>
@@ -18414,7 +18415,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40"/>
       <c r="B612" s="20" t="s">
         <v>44</v>
@@ -18436,7 +18437,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40"/>
       <c r="B613" s="20" t="s">
         <v>55</v>
@@ -18458,7 +18459,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40"/>
       <c r="B614" s="20" t="s">
         <v>521</v>
@@ -18480,7 +18481,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
         <f>EDATE(A609,1)</f>
         <v>43556</v>
@@ -18505,7 +18506,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
         <f t="shared" si="21"/>
         <v>43586</v>
@@ -18530,7 +18531,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40"/>
       <c r="B617" s="20" t="s">
         <v>44</v>
@@ -18552,7 +18553,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40"/>
       <c r="B618" s="20" t="s">
         <v>76</v>
@@ -18572,7 +18573,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13">
@@ -18590,7 +18591,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40">
         <f>EDATE(A616,1)</f>
         <v>43617</v>
@@ -18615,7 +18616,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40"/>
       <c r="B621" s="20" t="s">
         <v>44</v>
@@ -18637,7 +18638,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40"/>
       <c r="B622" s="20" t="s">
         <v>512</v>
@@ -18659,7 +18660,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40">
         <f>EDATE(A620,1)</f>
         <v>43647</v>
@@ -18684,7 +18685,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40">
         <f t="shared" si="21"/>
         <v>43678</v>
@@ -18709,7 +18710,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40"/>
       <c r="B625" s="20" t="s">
         <v>44</v>
@@ -18731,7 +18732,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40"/>
       <c r="B626" s="20" t="s">
         <v>44</v>
@@ -18753,7 +18754,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40"/>
       <c r="B627" s="20" t="s">
         <v>139</v>
@@ -18775,7 +18776,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40">
         <f>EDATE(A624,1)</f>
         <v>43709</v>
@@ -18800,7 +18801,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40">
         <f t="shared" si="21"/>
         <v>43739</v>
@@ -18825,7 +18826,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40"/>
       <c r="B630" s="20" t="s">
         <v>55</v>
@@ -18847,7 +18848,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40"/>
       <c r="B631" s="20" t="s">
         <v>44</v>
@@ -18869,7 +18870,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40"/>
       <c r="B632" s="20" t="s">
         <v>536</v>
@@ -18891,7 +18892,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40">
         <f>EDATE(A629,1)</f>
         <v>43770</v>
@@ -18916,7 +18917,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40"/>
       <c r="B634" s="20" t="s">
         <v>76</v>
@@ -18936,7 +18937,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40"/>
       <c r="B635" s="20" t="s">
         <v>540</v>
@@ -18958,7 +18959,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40">
         <f>EDATE(A633,1)</f>
         <v>43800</v>
@@ -18983,7 +18984,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40"/>
       <c r="B637" s="20" t="s">
         <v>543</v>
@@ -19005,7 +19006,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="48" t="s">
         <v>544</v>
       </c>
@@ -19023,7 +19024,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40">
         <v>43831</v>
       </c>
@@ -19045,7 +19046,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40"/>
       <c r="B640" s="20" t="s">
         <v>546</v>
@@ -19065,7 +19066,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40"/>
       <c r="B641" s="20"/>
       <c r="C641" s="13">
@@ -19083,7 +19084,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40">
         <f>EDATE(A639,1)</f>
         <v>43862</v>
@@ -19104,7 +19105,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40">
         <f t="shared" ref="A643:A653" si="22">EDATE(A642,1)</f>
         <v>43891</v>
@@ -19125,7 +19126,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40">
         <f t="shared" si="22"/>
         <v>43922</v>
@@ -19146,7 +19147,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40">
         <f t="shared" si="22"/>
         <v>43952</v>
@@ -19167,7 +19168,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40">
         <f t="shared" si="22"/>
         <v>43983</v>
@@ -19188,7 +19189,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40">
         <f t="shared" si="22"/>
         <v>44013</v>
@@ -19213,7 +19214,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40"/>
       <c r="B648" s="20"/>
       <c r="C648" s="13">
@@ -19231,7 +19232,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40">
         <f>EDATE(A647,1)</f>
         <v>44044</v>
@@ -19252,7 +19253,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40">
         <f t="shared" si="22"/>
         <v>44075</v>
@@ -19273,7 +19274,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40">
         <f t="shared" si="22"/>
         <v>44105</v>
@@ -19294,7 +19295,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40">
         <f t="shared" si="22"/>
         <v>44136</v>
@@ -19315,7 +19316,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40">
         <f t="shared" si="22"/>
         <v>44166</v>
@@ -19340,7 +19341,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40"/>
       <c r="B654" s="20" t="s">
         <v>76</v>
@@ -19360,7 +19361,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40"/>
       <c r="B655" s="20" t="s">
         <v>552</v>
@@ -19382,7 +19383,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="48" t="s">
         <v>553</v>
       </c>
@@ -19400,7 +19401,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40">
         <v>44197</v>
       </c>
@@ -19420,7 +19421,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40">
         <f>EDATE(A657,1)</f>
         <v>44228</v>
@@ -19441,7 +19442,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40">
         <f t="shared" ref="A659:A667" si="23">EDATE(A658,1)</f>
         <v>44256</v>
@@ -19462,7 +19463,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40">
         <f t="shared" si="23"/>
         <v>44287</v>
@@ -19483,7 +19484,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40">
         <f t="shared" si="23"/>
         <v>44317</v>
@@ -19504,7 +19505,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40">
         <f t="shared" si="23"/>
         <v>44348</v>
@@ -19525,7 +19526,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40">
         <f t="shared" si="23"/>
         <v>44378</v>
@@ -19546,7 +19547,7 @@
       <c r="J663" s="12"/>
       <c r="K663" s="15"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40">
         <f t="shared" si="23"/>
         <v>44409</v>
@@ -19567,7 +19568,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="40">
         <f t="shared" si="23"/>
         <v>44440</v>
@@ -19588,7 +19589,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40">
         <f t="shared" si="23"/>
         <v>44470</v>
@@ -19609,7 +19610,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40">
         <f t="shared" si="23"/>
         <v>44501</v>
@@ -19630,7 +19631,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40">
         <f>EDATE(A667,1)</f>
         <v>44531</v>
@@ -19655,7 +19656,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40"/>
       <c r="B669" s="20" t="s">
         <v>102</v>
@@ -19677,7 +19678,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40"/>
       <c r="B670" s="20" t="s">
         <v>164</v>
@@ -19699,7 +19700,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="48" t="s">
         <v>556</v>
       </c>
@@ -19717,7 +19718,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40">
         <v>44562</v>
       </c>
@@ -19737,7 +19738,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40">
         <f>EDATE(A672,1)</f>
         <v>44593</v>
@@ -19758,7 +19759,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40">
         <f t="shared" ref="A674:A689" si="24">EDATE(A673,1)</f>
         <v>44621</v>
@@ -19781,7 +19782,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13">
@@ -19799,7 +19800,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40">
         <f>EDATE(A674,1)</f>
         <v>44652</v>
@@ -19824,7 +19825,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13">
@@ -19842,7 +19843,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40">
         <f>EDATE(A676,1)</f>
         <v>44682</v>
@@ -19867,7 +19868,7 @@
         <v>44597</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40"/>
       <c r="B679" s="20" t="s">
         <v>44</v>
@@ -19889,7 +19890,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13">
@@ -19907,7 +19908,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40">
         <f>EDATE(A678,1)</f>
         <v>44713</v>
@@ -19932,7 +19933,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40"/>
       <c r="B682" s="20" t="s">
         <v>51</v>
@@ -19954,7 +19955,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40"/>
       <c r="B683" s="20" t="s">
         <v>44</v>
@@ -19976,7 +19977,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40"/>
       <c r="B684" s="20" t="s">
         <v>76</v>
@@ -19996,7 +19997,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13">
@@ -20014,7 +20015,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40">
         <f>EDATE(A681,1)</f>
         <v>44743</v>
@@ -20039,7 +20040,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13">
@@ -20057,7 +20058,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40">
         <f>EDATE(A686,1)</f>
         <v>44774</v>
@@ -20084,7 +20085,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40">
         <f t="shared" si="24"/>
         <v>44805</v>
@@ -20111,7 +20112,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40">
         <v>44835</v>
       </c>
@@ -20131,7 +20132,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40">
         <v>44866</v>
       </c>
@@ -20157,7 +20158,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40"/>
       <c r="B692" s="20" t="s">
         <v>569</v>
@@ -20179,7 +20180,7 @@
         <v>44883</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40">
         <v>44896</v>
       </c>
@@ -20205,7 +20206,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40"/>
       <c r="B694" s="20" t="s">
         <v>575</v>
@@ -20227,7 +20228,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="48" t="s">
         <v>566</v>
       </c>
@@ -20245,7 +20246,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40">
         <v>44927</v>
       </c>
@@ -20269,7 +20270,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40"/>
       <c r="B697" s="15" t="s">
         <v>569</v>
@@ -20291,7 +20292,7 @@
         <v>44930</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40">
         <v>44958</v>
       </c>
@@ -20317,7 +20318,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40">
         <v>44986</v>
       </c>
@@ -20343,7 +20344,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40">
         <v>45017</v>
       </c>
@@ -20369,7 +20370,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40">
         <v>45047</v>
       </c>
@@ -20395,7 +20396,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40"/>
       <c r="B702" s="20" t="s">
         <v>569</v>
@@ -20417,25 +20418,33 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40">
         <v>45078</v>
       </c>
-      <c r="B703" s="20"/>
-      <c r="C703" s="13"/>
+      <c r="B703" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="C703" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D703" s="39"/>
       <c r="E703" s="9"/>
       <c r="F703" s="20"/>
-      <c r="G703" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H703" s="39"/>
+      <c r="G703" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H703" s="39">
+        <v>1</v>
+      </c>
       <c r="I703" s="9"/>
       <c r="J703" s="11"/>
-      <c r="K703" s="20"/>
-    </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K703" s="49">
+        <v>45104</v>
+      </c>
+    </row>
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40">
         <v>45108</v>
       </c>
@@ -20453,7 +20462,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40">
         <v>45139</v>
       </c>
@@ -20471,7 +20480,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40">
         <v>45170</v>
       </c>
@@ -20489,7 +20498,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40">
         <v>45200</v>
       </c>
@@ -20507,7 +20516,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40">
         <v>45231</v>
       </c>
@@ -20525,7 +20534,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40">
         <v>45261</v>
       </c>
@@ -20543,7 +20552,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="40">
         <v>45292</v>
       </c>
@@ -20561,7 +20570,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40">
         <v>45323</v>
       </c>
@@ -20579,7 +20588,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="40">
         <v>45352</v>
       </c>
@@ -20597,7 +20606,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="40">
         <v>45383</v>
       </c>
@@ -20615,7 +20624,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="40">
         <v>45413</v>
       </c>
@@ -20633,7 +20642,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="40">
         <v>45444</v>
       </c>
@@ -20651,7 +20660,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="40">
         <v>45474</v>
       </c>
@@ -20669,7 +20678,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="40">
         <v>45505</v>
       </c>
@@ -20687,7 +20696,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="40">
         <v>45536</v>
       </c>
@@ -20705,7 +20714,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="40">
         <v>45566</v>
       </c>
@@ -20723,7 +20732,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="40">
         <v>45597</v>
       </c>
@@ -20741,7 +20750,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="40">
         <v>45627</v>
       </c>
@@ -20759,7 +20768,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="40">
         <v>45658</v>
       </c>
@@ -20777,7 +20786,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="40">
         <v>45689</v>
       </c>
@@ -20795,7 +20804,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="40">
         <v>45717</v>
       </c>
@@ -20813,7 +20822,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="40">
         <v>45748</v>
       </c>
@@ -20831,7 +20840,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="40">
         <v>45778</v>
       </c>
@@ -20849,7 +20858,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="40">
         <v>45809</v>
       </c>
@@ -20867,7 +20876,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="40">
         <v>45839</v>
       </c>
@@ -20885,7 +20894,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="40">
         <v>45870</v>
       </c>
@@ -20903,7 +20912,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="40">
         <v>45901</v>
       </c>
@@ -20921,7 +20930,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="40">
         <v>45931</v>
       </c>
@@ -20939,7 +20948,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="40">
         <v>45962</v>
       </c>
@@ -20957,7 +20966,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="40">
         <v>45992</v>
       </c>
@@ -20975,7 +20984,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="40">
         <v>46023</v>
       </c>
@@ -20993,7 +21002,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" s="40">
         <v>46054</v>
       </c>
@@ -21011,7 +21020,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="40">
         <v>46082</v>
       </c>
@@ -21029,7 +21038,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" s="40">
         <v>46113</v>
       </c>
@@ -21047,7 +21056,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738" s="40">
         <v>46143</v>
       </c>
@@ -21065,7 +21074,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A739" s="40">
         <v>46174</v>
       </c>
@@ -21098,10 +21107,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21124,7 +21133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -21132,21 +21141,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="75" t="s">
         <v>33</v>
       </c>
@@ -21159,7 +21168,7 @@
       <c r="K1" s="76"/>
       <c r="L1" s="76"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -21188,7 +21197,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -21214,17 +21223,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -21245,7 +21254,7 @@
       <c r="K6" s="76"/>
       <c r="L6" s="76"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -21272,7 +21281,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -21298,7 +21307,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -21324,7 +21333,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -21350,7 +21359,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -21376,7 +21385,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -21402,7 +21411,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -21428,7 +21437,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -21454,7 +21463,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -21474,7 +21483,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -21494,7 +21503,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -21514,7 +21523,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -21535,7 +21544,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -21556,7 +21565,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -21577,7 +21586,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -21598,7 +21607,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -21619,7 +21628,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -21640,7 +21649,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -21661,7 +21670,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -21682,7 +21691,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -21703,7 +21712,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -21724,7 +21733,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -21745,7 +21754,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -21766,7 +21775,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -21787,7 +21796,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -21808,7 +21817,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -21829,7 +21838,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -21850,7 +21859,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -21871,7 +21880,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -21892,7 +21901,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -21913,7 +21922,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -21934,7 +21943,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -21943,7 +21952,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -21952,7 +21961,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -21961,7 +21970,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -21970,7 +21979,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -21979,7 +21988,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -21988,7 +21997,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -21997,7 +22006,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -22006,7 +22015,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -22015,7 +22024,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -22024,7 +22033,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -22033,7 +22042,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -22042,7 +22051,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -22051,7 +22060,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -22060,7 +22069,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -22069,7 +22078,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -22078,7 +22087,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -22087,7 +22096,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -22096,7 +22105,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -22105,7 +22114,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -22114,7 +22123,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -22123,7 +22132,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -22132,7 +22141,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -22141,7 +22150,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -22150,7 +22159,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -22159,7 +22168,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -22168,7 +22177,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -22177,7 +22186,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -22186,7 +22195,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -22195,7 +22204,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/MENDOZA, PRESCILA.xlsx
+++ b/REGULAR/OJT/MENDOZA, PRESCILA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42701763-8135-4FB1-8095-FDD9CAAAC8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="576">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1768,7 +1767,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2687,7 +2686,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2730,7 +2729,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2794,7 +2793,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2854,7 +2853,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2920,7 +2919,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2983,7 +2982,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3081,7 +3080,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3140,7 +3139,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3205,7 +3204,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3248,7 +3247,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3323,7 +3322,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3509,7 +3508,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3575,7 +3574,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3633,7 +3632,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3699,7 +3698,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3755,7 +3754,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3830,7 +3829,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3873,7 +3872,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3939,7 +3938,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3995,7 +3994,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4093,7 +4092,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4156,7 +4155,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4205,7 +4204,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -4222,25 +4221,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K739" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K739" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4252,13 +4251,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4267,14 +4266,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4578,7 +4577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4588,7 +4587,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4596,34 +4595,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:L739"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A696" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A693" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="E703" sqref="E703"/>
+      <selection pane="bottomLeft" activeCell="K704" sqref="K704"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4644,7 +4643,7 @@
       <c r="J2" s="67"/>
       <c r="K2" s="68"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4664,7 +4663,7 @@
       <c r="J3" s="69"/>
       <c r="K3" s="70"/>
     </row>
-    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4686,7 +4685,7 @@
       <c r="J4" s="71"/>
       <c r="K4" s="72"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4694,7 +4693,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4707,7 +4706,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="65" t="s">
@@ -4724,7 +4723,7 @@
       <c r="J7" s="65"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4759,7 +4758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4783,7 +4782,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="s">
         <v>43</v>
       </c>
@@ -4805,7 +4804,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="60" t="s">
         <v>61</v>
       </c>
@@ -4827,7 +4826,7 @@
       <c r="K11" s="58"/>
       <c r="L11" s="57"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="53">
         <v>35916</v>
       </c>
@@ -4847,7 +4846,7 @@
       <c r="J12" s="56"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="20" t="s">
         <v>60</v>
@@ -4867,7 +4866,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>35947</v>
       </c>
@@ -4893,7 +4892,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>45</v>
@@ -4913,7 +4912,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f>EDATE(A14,1)</f>
         <v>35977</v>
@@ -4940,7 +4939,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>47</v>
@@ -4960,7 +4959,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f>EDATE(A16,1)</f>
         <v>36008</v>
@@ -4987,7 +4986,7 @@
         <v>36076</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>49</v>
@@ -5007,7 +5006,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f>EDATE(A18,1)</f>
         <v>36039</v>
@@ -5032,7 +5031,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f t="shared" ref="A21" si="0">EDATE(A20,1)</f>
         <v>36069</v>
@@ -5059,7 +5058,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>53</v>
@@ -5079,7 +5078,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <f>EDATE(A21,1)</f>
         <v>36100</v>
@@ -5106,7 +5105,7 @@
         <v>36049</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>54</v>
@@ -5126,7 +5125,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f>EDATE(A23,1)</f>
         <v>36130</v>
@@ -5153,7 +5152,7 @@
         <v>35807</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>55</v>
@@ -5175,7 +5174,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>57</v>
@@ -5197,7 +5196,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>59</v>
@@ -5217,7 +5216,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
         <v>65</v>
       </c>
@@ -5235,7 +5234,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>36161</v>
       </c>
@@ -5261,7 +5260,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>68</v>
@@ -5281,7 +5280,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f>EDATE(A30,1)</f>
         <v>36192</v>
@@ -5306,7 +5305,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f t="shared" ref="A33:A45" si="1">EDATE(A32,1)</f>
         <v>36220</v>
@@ -5333,7 +5332,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>70</v>
@@ -5355,7 +5354,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>73</v>
@@ -5375,7 +5374,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f>EDATE(A33,1)</f>
         <v>36251</v>
@@ -5400,7 +5399,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f t="shared" si="1"/>
         <v>36281</v>
@@ -5425,7 +5424,7 @@
         <v>36224</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>76</v>
@@ -5445,7 +5444,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>75</v>
@@ -5467,7 +5466,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f>EDATE(A37,1)</f>
         <v>36312</v>
@@ -5492,7 +5491,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" si="1"/>
         <v>36342</v>
@@ -5517,7 +5516,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f t="shared" si="1"/>
         <v>36373</v>
@@ -5542,7 +5541,7 @@
         <v>36411</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>74</v>
@@ -5564,7 +5563,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f>EDATE(A42,1)</f>
         <v>36404</v>
@@ -5589,7 +5588,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" si="1"/>
         <v>36434</v>
@@ -5614,7 +5613,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>82</v>
@@ -5636,7 +5635,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f>EDATE(A45,1)</f>
         <v>36465</v>
@@ -5661,7 +5660,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>75</v>
@@ -5683,7 +5682,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f>EDATE(A47,1)</f>
         <v>36495</v>
@@ -5710,7 +5709,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>86</v>
@@ -5730,7 +5729,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
         <v>85</v>
       </c>
@@ -5748,7 +5747,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>36526</v>
       </c>
@@ -5770,7 +5769,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>87</v>
@@ -5792,7 +5791,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f>EDATE(A52,1)</f>
         <v>36557</v>
@@ -5817,7 +5816,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>90</v>
@@ -5839,7 +5838,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f>EDATE(A54,1)</f>
         <v>36586</v>
@@ -5862,7 +5861,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>44</v>
@@ -5884,7 +5883,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>51</v>
@@ -5908,7 +5907,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>82</v>
@@ -5928,7 +5927,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f>EDATE(A56,1)</f>
         <v>36617</v>
@@ -5953,7 +5952,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f t="shared" ref="A61:A70" si="2">EDATE(A60,1)</f>
         <v>36647</v>
@@ -5978,7 +5977,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>96</v>
@@ -6000,7 +5999,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>36678</v>
@@ -6025,7 +6024,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f t="shared" si="2"/>
         <v>36708</v>
@@ -6050,7 +6049,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>76</v>
@@ -6070,7 +6069,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>69</v>
@@ -6092,7 +6091,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f>EDATE(A64,1)</f>
         <v>36739</v>
@@ -6113,7 +6112,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f t="shared" si="2"/>
         <v>36770</v>
@@ -6134,7 +6133,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f t="shared" si="2"/>
         <v>36800</v>
@@ -6159,7 +6158,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f t="shared" si="2"/>
         <v>36831</v>
@@ -6184,7 +6183,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>70</v>
@@ -6206,7 +6205,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>101</v>
@@ -6228,7 +6227,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f>EDATE(A70,1)</f>
         <v>36861</v>
@@ -6253,7 +6252,7 @@
         <v>36537</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>55</v>
@@ -6275,7 +6274,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>87</v>
@@ -6297,7 +6296,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
         <v>104</v>
       </c>
@@ -6315,7 +6314,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44197</v>
       </c>
@@ -6339,7 +6338,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>76</v>
@@ -6359,7 +6358,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>106</v>
@@ -6381,7 +6380,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f>EDATE(A77,1)</f>
         <v>44228</v>
@@ -6406,7 +6405,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>73</v>
@@ -6428,7 +6427,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f>EDATE(A80,1)</f>
         <v>44256</v>
@@ -6453,7 +6452,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f t="shared" ref="A83:A94" si="3">EDATE(A82,1)</f>
         <v>44287</v>
@@ -6478,7 +6477,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>112</v>
@@ -6500,7 +6499,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
@@ -6518,7 +6517,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f>EDATE(A83,1)</f>
         <v>44317</v>
@@ -6543,7 +6542,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13">
@@ -6561,7 +6560,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f>EDATE(A86,1)</f>
         <v>44348</v>
@@ -6586,7 +6585,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f t="shared" si="3"/>
         <v>44378</v>
@@ -6611,7 +6610,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" si="3"/>
         <v>44409</v>
@@ -6636,7 +6635,7 @@
         <v>37142</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>117</v>
@@ -6658,7 +6657,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f>EDATE(A90,1)</f>
         <v>44440</v>
@@ -6679,7 +6678,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f t="shared" si="3"/>
         <v>44470</v>
@@ -6704,7 +6703,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f t="shared" si="3"/>
         <v>44501</v>
@@ -6729,7 +6728,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>76</v>
@@ -6749,7 +6748,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>120</v>
@@ -6771,7 +6770,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f>EDATE(A94,1)</f>
         <v>44531</v>
@@ -6796,7 +6795,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="48" t="s">
         <v>123</v>
       </c>
@@ -6814,7 +6813,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>37257</v>
       </c>
@@ -6836,7 +6835,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>44</v>
@@ -6858,7 +6857,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13">
@@ -6876,7 +6875,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f>EDATE(A99,1)</f>
         <v>37288</v>
@@ -6901,7 +6900,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>127</v>
@@ -6923,7 +6922,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f>EDATE(A102,1)</f>
         <v>37316</v>
@@ -6948,7 +6947,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>44</v>
@@ -6970,7 +6969,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>130</v>
@@ -6992,7 +6991,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f>EDATE(A104,1)</f>
         <v>37347</v>
@@ -7017,7 +7016,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>44</v>
@@ -7039,7 +7038,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>116</v>
@@ -7061,7 +7060,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f>EDATE(A107,1)</f>
         <v>37377</v>
@@ -7086,7 +7085,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>44</v>
@@ -7108,7 +7107,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>90</v>
@@ -7130,7 +7129,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f>EDATE(A110,1)</f>
         <v>37408</v>
@@ -7153,7 +7152,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>78</v>
@@ -7175,7 +7174,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>37438</v>
@@ -7200,7 +7199,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f t="shared" ref="A116" si="4">EDATE(A115,1)</f>
         <v>37469</v>
@@ -7225,7 +7224,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>51</v>
@@ -7247,7 +7246,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>139</v>
@@ -7269,7 +7268,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f>EDATE(A116,1)</f>
         <v>37500</v>
@@ -7294,7 +7293,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13">
@@ -7312,7 +7311,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f>EDATE(A119,1)</f>
         <v>37530</v>
@@ -7337,7 +7336,7 @@
         <v>37356</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13">
@@ -7355,7 +7354,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f>EDATE(A121,1)</f>
         <v>37561</v>
@@ -7380,7 +7379,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>44</v>
@@ -7402,7 +7401,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>87</v>
@@ -7424,7 +7423,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f>EDATE(A123,1)</f>
         <v>37591</v>
@@ -7449,7 +7448,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>144</v>
@@ -7471,7 +7470,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="48" t="s">
         <v>145</v>
       </c>
@@ -7489,7 +7488,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>37622</v>
       </c>
@@ -7511,7 +7510,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>147</v>
@@ -7533,7 +7532,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f>EDATE(A129,1)</f>
         <v>37653</v>
@@ -7558,7 +7557,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" ref="A132:A149" si="5">EDATE(A131,1)</f>
         <v>37681</v>
@@ -7583,7 +7582,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>44</v>
@@ -7605,7 +7604,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>151</v>
@@ -7627,7 +7626,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f>EDATE(A132,1)</f>
         <v>37712</v>
@@ -7652,7 +7651,7 @@
         <v>37868</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>152</v>
@@ -7674,7 +7673,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f>EDATE(A135,1)</f>
         <v>37742</v>
@@ -7699,7 +7698,7 @@
         <v>37777</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>44</v>
@@ -7721,7 +7720,7 @@
         <v>37960</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>76</v>
@@ -7741,7 +7740,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13">
@@ -7759,7 +7758,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f>EDATE(A137,1)</f>
         <v>37773</v>
@@ -7784,7 +7783,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>44</v>
@@ -7806,7 +7805,7 @@
         <v>37870</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>155</v>
@@ -7828,7 +7827,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f>EDATE(A141,1)</f>
         <v>37803</v>
@@ -7853,7 +7852,7 @@
         <v>37659</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>156</v>
@@ -7875,7 +7874,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f>EDATE(A144,1)</f>
         <v>37834</v>
@@ -7900,7 +7899,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13">
@@ -7918,7 +7917,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f>EDATE(A146,1)</f>
         <v>37865</v>
@@ -7943,7 +7942,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f t="shared" si="5"/>
         <v>37895</v>
@@ -7968,7 +7967,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>159</v>
@@ -7990,7 +7989,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f>EDATE(A149,1)</f>
         <v>37926</v>
@@ -8015,7 +8014,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>161</v>
@@ -8037,7 +8036,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <f>EDATE(A151,1)</f>
         <v>37956</v>
@@ -8062,7 +8061,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>102</v>
@@ -8084,7 +8083,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>164</v>
@@ -8106,7 +8105,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>165</v>
@@ -8126,7 +8125,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="48" t="s">
         <v>166</v>
       </c>
@@ -8144,7 +8143,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>37987</v>
       </c>
@@ -8166,7 +8165,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>44</v>
@@ -8188,7 +8187,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>76</v>
@@ -8208,7 +8207,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>167</v>
@@ -8230,7 +8229,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f>EDATE(A158,1)</f>
         <v>38018</v>
@@ -8255,7 +8254,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <f t="shared" ref="A163" si="6">EDATE(A162,1)</f>
         <v>38047</v>
@@ -8280,7 +8279,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>44</v>
@@ -8302,7 +8301,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>44</v>
@@ -8324,7 +8323,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>175</v>
@@ -8346,7 +8345,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <f>EDATE(A163,1)</f>
         <v>38078</v>
@@ -8371,7 +8370,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>178</v>
@@ -8393,7 +8392,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f>EDATE(A167,1)</f>
         <v>38108</v>
@@ -8418,7 +8417,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>180</v>
@@ -8440,7 +8439,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f>EDATE(A169,1)</f>
         <v>38139</v>
@@ -8465,7 +8464,7 @@
         <v>38174</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>44</v>
@@ -8487,7 +8486,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>44</v>
@@ -8509,7 +8508,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>183</v>
@@ -8531,7 +8530,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <f>EDATE(A171,1)</f>
         <v>38169</v>
@@ -8556,7 +8555,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>44</v>
@@ -8578,7 +8577,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>186</v>
@@ -8600,7 +8599,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f>EDATE(A175,1)</f>
         <v>38200</v>
@@ -8625,7 +8624,7 @@
         <v>38238</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>44</v>
@@ -8647,7 +8646,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>53</v>
@@ -8669,7 +8668,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f>EDATE(A178,1)</f>
         <v>38231</v>
@@ -8694,7 +8693,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>189</v>
@@ -8716,7 +8715,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f>EDATE(A181,1)</f>
         <v>38261</v>
@@ -8741,7 +8740,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>44</v>
@@ -8763,7 +8762,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>191</v>
@@ -8785,7 +8784,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f>EDATE(A183,1)</f>
         <v>38292</v>
@@ -8810,7 +8809,7 @@
         <v>38057</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>44</v>
@@ -8832,7 +8831,7 @@
         <v>37998</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>193</v>
@@ -8854,7 +8853,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f>EDATE(A186,1)</f>
         <v>38322</v>
@@ -8879,7 +8878,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>195</v>
@@ -8901,7 +8900,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="48" t="s">
         <v>196</v>
       </c>
@@ -8919,7 +8918,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>38353</v>
       </c>
@@ -8943,7 +8942,7 @@
         <v>38412</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>76</v>
@@ -8963,7 +8962,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>44</v>
@@ -8985,7 +8984,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>70</v>
@@ -9007,7 +9006,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>200</v>
@@ -9029,7 +9028,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f>EDATE(A192,1)</f>
         <v>38384</v>
@@ -9054,7 +9053,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>44</v>
@@ -9076,7 +9075,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>206</v>
@@ -9098,7 +9097,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f>EDATE(A197,1)</f>
         <v>38412</v>
@@ -9121,7 +9120,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>44</v>
@@ -9143,7 +9142,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>76</v>
@@ -9163,7 +9162,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>212</v>
@@ -9185,7 +9184,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>51</v>
@@ -9207,7 +9206,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f>EDATE(A200,1)</f>
         <v>38443</v>
@@ -9232,7 +9231,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>209</v>
@@ -9254,7 +9253,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f>EDATE(A205,1)</f>
         <v>38473</v>
@@ -9279,7 +9278,7 @@
         <v>38600</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>51</v>
@@ -9301,7 +9300,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>51</v>
@@ -9323,7 +9322,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>213</v>
@@ -9345,7 +9344,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f>EDATE(A207,1)</f>
         <v>38504</v>
@@ -9370,7 +9369,7 @@
         <v>38539</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>102</v>
@@ -9392,7 +9391,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>70</v>
@@ -9414,7 +9413,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>215</v>
@@ -9436,7 +9435,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f>EDATE(A211,1)</f>
         <v>38534</v>
@@ -9461,7 +9460,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>218</v>
@@ -9483,7 +9482,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <f>EDATE(A215,1)</f>
         <v>38565</v>
@@ -9508,7 +9507,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>220</v>
@@ -9530,7 +9529,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <f>EDATE(A217,1)</f>
         <v>38596</v>
@@ -9555,7 +9554,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f t="shared" ref="A220" si="7">EDATE(A219,1)</f>
         <v>38626</v>
@@ -9580,7 +9579,7 @@
         <v>38696</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>44</v>
@@ -9602,7 +9601,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>223</v>
@@ -9622,7 +9621,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f>EDATE(A220,1)</f>
         <v>38657</v>
@@ -9647,7 +9646,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>225</v>
@@ -9669,7 +9668,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <f>EDATE(A223,1)</f>
         <v>38687</v>
@@ -9694,7 +9693,7 @@
         <v>38698</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>164</v>
@@ -9716,7 +9715,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>227</v>
@@ -9738,7 +9737,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="48" t="s">
         <v>228</v>
       </c>
@@ -9756,7 +9755,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>38718</v>
       </c>
@@ -9780,7 +9779,7 @@
         <v>38961</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>76</v>
@@ -9800,7 +9799,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>44</v>
@@ -9822,7 +9821,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>76</v>
@@ -9842,7 +9841,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>229</v>
@@ -9864,7 +9863,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <f>EDATE(A229,1)</f>
         <v>38749</v>
@@ -9889,7 +9888,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>234</v>
@@ -9911,7 +9910,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f>EDATE(A234,1)</f>
         <v>38777</v>
@@ -9936,7 +9935,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>76</v>
@@ -9956,7 +9955,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>44</v>
@@ -9978,7 +9977,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>238</v>
@@ -10000,7 +9999,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f>EDATE(A236,1)</f>
         <v>38808</v>
@@ -10025,7 +10024,7 @@
         <v>38902</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20"/>
       <c r="C241" s="13">
@@ -10043,7 +10042,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>44</v>
@@ -10065,7 +10064,7 @@
         <v>38812</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>44</v>
@@ -10087,7 +10086,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>44</v>
@@ -10109,7 +10108,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>239</v>
@@ -10129,7 +10128,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f>EDATE(A240,1)</f>
         <v>38838</v>
@@ -10154,7 +10153,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <f t="shared" ref="A247:A258" si="8">EDATE(A246,1)</f>
         <v>38869</v>
@@ -10179,7 +10178,7 @@
         <v>38723</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>44</v>
@@ -10201,7 +10200,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>244</v>
@@ -10223,7 +10222,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f>EDATE(A247,1)</f>
         <v>38899</v>
@@ -10248,7 +10247,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>247</v>
@@ -10270,7 +10269,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f>EDATE(A250,1)</f>
         <v>38930</v>
@@ -10295,7 +10294,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>44</v>
@@ -10317,7 +10316,7 @@
         <v>38877</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>44</v>
@@ -10339,7 +10338,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>250</v>
@@ -10361,7 +10360,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f>EDATE(A252,1)</f>
         <v>38961</v>
@@ -10386,7 +10385,7 @@
       <c r="J256" s="12"/>
       <c r="K256" s="15"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f t="shared" si="8"/>
         <v>38991</v>
@@ -10411,7 +10410,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <f t="shared" si="8"/>
         <v>39022</v>
@@ -10436,7 +10435,7 @@
         <v>38940</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>254</v>
@@ -10458,7 +10457,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f>EDATE(A258,1)</f>
         <v>39052</v>
@@ -10483,7 +10482,7 @@
         <v>39033</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>44</v>
@@ -10505,7 +10504,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>256</v>
@@ -10527,7 +10526,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="48" t="s">
         <v>257</v>
       </c>
@@ -10545,7 +10544,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>39083</v>
       </c>
@@ -10569,7 +10568,7 @@
         <v>39114</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>76</v>
@@ -10589,7 +10588,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>76</v>
@@ -10609,7 +10608,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>70</v>
@@ -10631,7 +10630,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>261</v>
@@ -10653,7 +10652,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>51</v>
@@ -10675,7 +10674,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>264</v>
@@ -10697,7 +10696,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f>EDATE(A264,1)</f>
         <v>39114</v>
@@ -10722,7 +10721,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f t="shared" ref="A272:A284" si="9">EDATE(A271,1)</f>
         <v>39142</v>
@@ -10747,7 +10746,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>267</v>
@@ -10769,7 +10768,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f>EDATE(A272,1)</f>
         <v>39173</v>
@@ -10794,7 +10793,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>270</v>
@@ -10816,7 +10815,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <f>EDATE(A274,1)</f>
         <v>39203</v>
@@ -10841,7 +10840,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f t="shared" si="9"/>
         <v>39234</v>
@@ -10866,7 +10865,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20"/>
       <c r="C278" s="13">
@@ -10884,7 +10883,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <f>EDATE(A277,1)</f>
         <v>39264</v>
@@ -10905,7 +10904,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <f t="shared" si="9"/>
         <v>39295</v>
@@ -10926,7 +10925,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f t="shared" si="9"/>
         <v>39326</v>
@@ -10947,7 +10946,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f t="shared" si="9"/>
         <v>39356</v>
@@ -10968,7 +10967,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f t="shared" si="9"/>
         <v>39387</v>
@@ -10989,7 +10988,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f t="shared" si="9"/>
         <v>39417</v>
@@ -11014,7 +11013,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="48" t="s">
         <v>273</v>
       </c>
@@ -11032,7 +11031,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>39448</v>
       </c>
@@ -11054,7 +11053,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>44</v>
@@ -11074,7 +11073,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>276</v>
@@ -11096,7 +11095,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f>EDATE(A286,1)</f>
         <v>39479</v>
@@ -11121,7 +11120,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <f t="shared" ref="A290:A312" si="10">EDATE(A289,1)</f>
         <v>39508</v>
@@ -11146,7 +11145,7 @@
         <v>39755</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>44</v>
@@ -11168,7 +11167,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>76</v>
@@ -11188,7 +11187,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>280</v>
@@ -11210,7 +11209,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f>EDATE(A290,1)</f>
         <v>39539</v>
@@ -11235,7 +11234,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>282</v>
@@ -11257,7 +11256,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <f>EDATE(A294,1)</f>
         <v>39569</v>
@@ -11282,7 +11281,7 @@
         <v>39665</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>44</v>
@@ -11304,7 +11303,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>283</v>
@@ -11326,7 +11325,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f>EDATE(A296,1)</f>
         <v>39600</v>
@@ -11351,7 +11350,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>164</v>
@@ -11373,7 +11372,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>287</v>
@@ -11395,7 +11394,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f>EDATE(A299,1)</f>
         <v>39630</v>
@@ -11420,7 +11419,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>180</v>
@@ -11442,7 +11441,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f>EDATE(A302,1)</f>
         <v>39661</v>
@@ -11467,7 +11466,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>44</v>
@@ -11489,7 +11488,7 @@
         <v>39456</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>290</v>
@@ -11511,7 +11510,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f>EDATE(A304,1)</f>
         <v>39692</v>
@@ -11536,7 +11535,7 @@
         <v>39791</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>44</v>
@@ -11558,7 +11557,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>44</v>
@@ -11580,7 +11579,7 @@
         <v>39670</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>292</v>
@@ -11602,7 +11601,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <f>EDATE(A307,1)</f>
         <v>39722</v>
@@ -11627,7 +11626,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f t="shared" si="10"/>
         <v>39753</v>
@@ -11652,7 +11651,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>51</v>
@@ -11674,7 +11673,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>296</v>
@@ -11696,7 +11695,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f>EDATE(A312,1)</f>
         <v>39783</v>
@@ -11719,7 +11718,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>298</v>
@@ -11741,7 +11740,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="48" t="s">
         <v>299</v>
       </c>
@@ -11759,7 +11758,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>39814</v>
       </c>
@@ -11781,7 +11780,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>44</v>
@@ -11803,7 +11802,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>302</v>
@@ -11825,7 +11824,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <f>EDATE(A318,1)</f>
         <v>39845</v>
@@ -11850,7 +11849,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f t="shared" ref="A322" si="11">EDATE(A321,1)</f>
         <v>39873</v>
@@ -11875,7 +11874,7 @@
         <v>40150</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>76</v>
@@ -11895,7 +11894,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>305</v>
@@ -11917,7 +11916,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f>EDATE(A322,1)</f>
         <v>39904</v>
@@ -11942,7 +11941,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>44</v>
@@ -11964,7 +11963,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>308</v>
@@ -11986,7 +11985,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <f>EDATE(A325,1)</f>
         <v>39934</v>
@@ -12011,7 +12010,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>310</v>
@@ -12033,7 +12032,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <f>EDATE(A328,1)</f>
         <v>39965</v>
@@ -12058,7 +12057,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>44</v>
@@ -12080,7 +12079,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>76</v>
@@ -12100,7 +12099,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>44</v>
@@ -12122,7 +12121,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>315</v>
@@ -12144,7 +12143,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f>EDATE(A330,1)</f>
         <v>39995</v>
@@ -12169,7 +12168,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>317</v>
@@ -12191,7 +12190,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f>EDATE(A335,1)</f>
         <v>40026</v>
@@ -12216,7 +12215,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>44</v>
@@ -12238,7 +12237,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>320</v>
@@ -12260,7 +12259,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <f>EDATE(A337,1)</f>
         <v>40057</v>
@@ -12285,7 +12284,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>321</v>
@@ -12307,7 +12306,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f>EDATE(A340,1)</f>
         <v>40087</v>
@@ -12332,7 +12331,7 @@
         <v>40157</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>44</v>
@@ -12354,7 +12353,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>327</v>
@@ -12376,7 +12375,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <f>EDATE(A342,1)</f>
         <v>40118</v>
@@ -12399,7 +12398,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>325</v>
@@ -12423,7 +12422,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>324</v>
@@ -12445,7 +12444,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <f>EDATE(A345,1)</f>
         <v>40148</v>
@@ -12470,7 +12469,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>329</v>
@@ -12492,7 +12491,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>325</v>
@@ -12516,7 +12515,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>331</v>
@@ -12538,7 +12537,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="48" t="s">
         <v>333</v>
       </c>
@@ -12556,7 +12555,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>40179</v>
       </c>
@@ -12578,7 +12577,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>76</v>
@@ -12598,7 +12597,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>336</v>
@@ -12620,7 +12619,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <f>EDATE(A353,1)</f>
         <v>40210</v>
@@ -12645,7 +12644,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>337</v>
@@ -12667,7 +12666,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <f>EDATE(A356,1)</f>
         <v>40238</v>
@@ -12694,7 +12693,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>76</v>
@@ -12714,7 +12713,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>337</v>
@@ -12734,7 +12733,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <f>EDATE(A358,1)</f>
         <v>40269</v>
@@ -12761,7 +12760,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>325</v>
@@ -12783,7 +12782,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>343</v>
@@ -12805,7 +12804,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>44</v>
@@ -12827,7 +12826,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>70</v>
@@ -12849,7 +12848,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>110</v>
@@ -12871,7 +12870,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>347</v>
@@ -12893,7 +12892,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <f>EDATE(A361,1)</f>
         <v>40299</v>
@@ -12918,7 +12917,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <f t="shared" ref="A369" si="12">EDATE(A368,1)</f>
         <v>40330</v>
@@ -12943,7 +12942,7 @@
         <v>40365</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>70</v>
@@ -12965,7 +12964,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>350</v>
@@ -12987,7 +12986,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <f>EDATE(A369,1)</f>
         <v>40360</v>
@@ -13012,7 +13011,7 @@
         <v>40275</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>351</v>
@@ -13034,7 +13033,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f>EDATE(A372,1)</f>
         <v>40391</v>
@@ -13059,7 +13058,7 @@
         <v>40337</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>44</v>
@@ -13081,7 +13080,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>353</v>
@@ -13103,7 +13102,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <f>EDATE(A374,1)</f>
         <v>40422</v>
@@ -13128,7 +13127,7 @@
         <v>40430</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20"/>
       <c r="C378" s="13">
@@ -13146,7 +13145,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <f>EDATE(A377,1)</f>
         <v>40452</v>
@@ -13171,7 +13170,7 @@
         <v>40278</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13">
@@ -13189,7 +13188,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <f>EDATE(A379,1)</f>
         <v>40483</v>
@@ -13214,7 +13213,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <f>EDATE(A381,1)</f>
         <v>40513</v>
@@ -13239,7 +13238,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="48" t="s">
         <v>356</v>
       </c>
@@ -13257,7 +13256,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>40544</v>
       </c>
@@ -13279,7 +13278,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>44</v>
@@ -13301,7 +13300,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>359</v>
@@ -13323,7 +13322,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <f>EDATE(A384,1)</f>
         <v>40575</v>
@@ -13348,7 +13347,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <f t="shared" ref="A388:A410" si="13">EDATE(A387,1)</f>
         <v>40603</v>
@@ -13373,7 +13372,7 @@
         <v>40636</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>44</v>
@@ -13395,7 +13394,7 @@
         <v>40698</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>361</v>
@@ -13417,7 +13416,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f>EDATE(A388,1)</f>
         <v>40634</v>
@@ -13442,7 +13441,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>70</v>
@@ -13464,7 +13463,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>325</v>
@@ -13486,7 +13485,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>362</v>
@@ -13506,7 +13505,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f>EDATE(A391,1)</f>
         <v>40664</v>
@@ -13533,7 +13532,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="64" t="s">
         <v>548</v>
@@ -13553,7 +13552,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>367</v>
@@ -13575,7 +13574,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13">
@@ -13593,7 +13592,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <f>EDATE(A395,1)</f>
         <v>40695</v>
@@ -13614,7 +13613,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <f t="shared" si="13"/>
         <v>40725</v>
@@ -13639,7 +13638,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <f t="shared" si="13"/>
         <v>40756</v>
@@ -13664,7 +13663,7 @@
         <v>40855</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>44</v>
@@ -13686,7 +13685,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>44</v>
@@ -13708,7 +13707,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>372</v>
@@ -13730,7 +13729,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f>EDATE(A401,1)</f>
         <v>40787</v>
@@ -13755,7 +13754,7 @@
         <v>40886</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>51</v>
@@ -13777,7 +13776,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>373</v>
@@ -13799,7 +13798,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <f>EDATE(A405,1)</f>
         <v>40817</v>
@@ -13824,7 +13823,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <f t="shared" si="13"/>
         <v>40848</v>
@@ -13849,7 +13848,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <f t="shared" si="13"/>
         <v>40878</v>
@@ -13874,7 +13873,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>378</v>
@@ -13896,7 +13895,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="48" t="s">
         <v>379</v>
       </c>
@@ -13914,7 +13913,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>40909</v>
       </c>
@@ -13936,7 +13935,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>51</v>
@@ -13958,7 +13957,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>44</v>
@@ -13980,7 +13979,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>383</v>
@@ -14002,7 +14001,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <f>EDATE(A413,1)</f>
         <v>40940</v>
@@ -14027,7 +14026,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <f t="shared" ref="A418:A437" si="14">EDATE(A417,1)</f>
         <v>40969</v>
@@ -14052,7 +14051,7 @@
         <v>41216</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>44</v>
@@ -14074,7 +14073,7 @@
         <v>11018</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>385</v>
@@ -14096,7 +14095,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <f>EDATE(A418,1)</f>
         <v>41000</v>
@@ -14121,7 +14120,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>387</v>
@@ -14143,7 +14142,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <f>EDATE(A421,1)</f>
         <v>41030</v>
@@ -14170,7 +14169,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>44</v>
@@ -14192,7 +14191,7 @@
         <v>40914</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>389</v>
@@ -14212,7 +14211,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>391</v>
@@ -14234,7 +14233,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <f>EDATE(A423,1)</f>
         <v>41061</v>
@@ -14261,7 +14260,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>392</v>
@@ -14283,7 +14282,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <f>EDATE(A427,1)</f>
         <v>41091</v>
@@ -14308,7 +14307,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>395</v>
@@ -14330,7 +14329,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <f>EDATE(A429,1)</f>
         <v>41122</v>
@@ -14355,7 +14354,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <f t="shared" si="14"/>
         <v>41153</v>
@@ -14380,7 +14379,7 @@
         <v>41099</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>44</v>
@@ -14402,7 +14401,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>44</v>
@@ -14422,7 +14421,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>397</v>
@@ -14444,7 +14443,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <f>EDATE(A432,1)</f>
         <v>41183</v>
@@ -14469,7 +14468,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <f t="shared" si="14"/>
         <v>41214</v>
@@ -14494,7 +14493,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>401</v>
@@ -14516,7 +14515,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <f>EDATE(A437,1)</f>
         <v>41244</v>
@@ -14541,7 +14540,7 @@
         <v>41041</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>44</v>
@@ -14563,7 +14562,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>402</v>
@@ -14585,7 +14584,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="48" t="s">
         <v>380</v>
       </c>
@@ -14603,7 +14602,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>41275</v>
       </c>
@@ -14625,7 +14624,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>405</v>
@@ -14647,7 +14646,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <f>EDATE(A443,1)</f>
         <v>41306</v>
@@ -14670,7 +14669,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>164</v>
@@ -14692,7 +14691,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>409</v>
@@ -14714,7 +14713,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <f>EDATE(A445,1)</f>
         <v>41334</v>
@@ -14739,7 +14738,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>411</v>
@@ -14761,7 +14760,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <f>EDATE(A448,1)</f>
         <v>41365</v>
@@ -14786,7 +14785,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <f t="shared" ref="A451:A467" si="15">EDATE(A450,1)</f>
         <v>41395</v>
@@ -14811,7 +14810,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>44</v>
@@ -14833,7 +14832,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>415</v>
@@ -14855,7 +14854,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <f>EDATE(A451,1)</f>
         <v>41426</v>
@@ -14880,7 +14879,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>354</v>
@@ -14902,7 +14901,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <f>EDATE(A454,1)</f>
         <v>41456</v>
@@ -14927,7 +14926,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>44</v>
@@ -14949,7 +14948,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>44</v>
@@ -14971,7 +14970,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>420</v>
@@ -14993,7 +14992,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <f>EDATE(A456,1)</f>
         <v>41487</v>
@@ -15018,7 +15017,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>422</v>
@@ -15040,7 +15039,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>424</v>
@@ -15062,7 +15061,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <f>EDATE(A460,1)</f>
         <v>41518</v>
@@ -15087,7 +15086,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <f t="shared" si="15"/>
         <v>41548</v>
@@ -15112,7 +15111,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>427</v>
@@ -15134,7 +15133,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <f>EDATE(A464,1)</f>
         <v>41579</v>
@@ -15159,7 +15158,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <f t="shared" si="15"/>
         <v>41609</v>
@@ -15184,7 +15183,7 @@
         <v>41620</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>428</v>
@@ -15206,7 +15205,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="48" t="s">
         <v>429</v>
       </c>
@@ -15224,7 +15223,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>41640</v>
       </c>
@@ -15246,7 +15245,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>80</v>
@@ -15268,7 +15267,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>435</v>
@@ -15290,7 +15289,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <f>EDATE(A470,1)</f>
         <v>41671</v>
@@ -15315,7 +15314,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>438</v>
@@ -15337,7 +15336,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <f>EDATE(A473,1)</f>
         <v>41699</v>
@@ -15362,7 +15361,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>76</v>
@@ -15382,7 +15381,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>441</v>
@@ -15404,7 +15403,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <f>EDATE(A475,1)</f>
         <v>41730</v>
@@ -15429,7 +15428,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>443</v>
@@ -15451,7 +15450,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <f>EDATE(A478,1)</f>
         <v>41760</v>
@@ -15476,7 +15475,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>51</v>
@@ -15498,7 +15497,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>445</v>
@@ -15520,7 +15519,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <f>EDATE(A480,1)</f>
         <v>41791</v>
@@ -15545,7 +15544,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <f t="shared" ref="A484:A489" si="16">EDATE(A483,1)</f>
         <v>41821</v>
@@ -15570,7 +15569,7 @@
         <v>41646</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>44</v>
@@ -15592,7 +15591,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>449</v>
@@ -15614,7 +15613,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <f>EDATE(A484,1)</f>
         <v>41852</v>
@@ -15639,7 +15638,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <f t="shared" si="16"/>
         <v>41883</v>
@@ -15664,7 +15663,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <f t="shared" si="16"/>
         <v>41913</v>
@@ -15689,7 +15688,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>452</v>
@@ -15711,7 +15710,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <f>EDATE(A489,1)</f>
         <v>41944</v>
@@ -15736,7 +15735,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <f>EDATE(A491,1)</f>
         <v>41974</v>
@@ -15761,7 +15760,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>350</v>
@@ -15783,7 +15782,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="48" t="s">
         <v>430</v>
       </c>
@@ -15801,7 +15800,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>42005</v>
       </c>
@@ -15825,7 +15824,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>76</v>
@@ -15845,7 +15844,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20"/>
       <c r="C497" s="13">
@@ -15863,7 +15862,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <f>EDATE(A495,1)</f>
         <v>42036</v>
@@ -15888,7 +15887,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20"/>
       <c r="C499" s="13">
@@ -15906,7 +15905,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <f>EDATE(A498,1)</f>
         <v>42064</v>
@@ -15931,7 +15930,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>44</v>
@@ -15953,7 +15952,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20"/>
       <c r="C502" s="13">
@@ -15971,7 +15970,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <f>EDATE(A500,1)</f>
         <v>42095</v>
@@ -15992,7 +15991,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <f t="shared" ref="A504:A518" si="17">EDATE(A503,1)</f>
         <v>42125</v>
@@ -16013,7 +16012,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <f t="shared" si="17"/>
         <v>42156</v>
@@ -16038,7 +16037,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20"/>
       <c r="C506" s="13">
@@ -16056,7 +16055,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <f>EDATE(A505,1)</f>
         <v>42186</v>
@@ -16081,7 +16080,7 @@
         <v>42284</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>44</v>
@@ -16103,7 +16102,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20"/>
       <c r="C509" s="13">
@@ -16121,7 +16120,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <f>EDATE(A507,1)</f>
         <v>42217</v>
@@ -16142,7 +16141,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <f t="shared" si="17"/>
         <v>42248</v>
@@ -16167,7 +16166,7 @@
         <v>42256</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20"/>
       <c r="C512" s="13">
@@ -16185,7 +16184,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <f>EDATE(A511,1)</f>
         <v>42278</v>
@@ -16210,7 +16209,7 @@
         <v>42226</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>55</v>
@@ -16232,7 +16231,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>44</v>
@@ -16254,7 +16253,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20"/>
       <c r="C516" s="13">
@@ -16272,7 +16271,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <f>EDATE(A513,1)</f>
         <v>42309</v>
@@ -16293,7 +16292,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <f t="shared" si="17"/>
         <v>42339</v>
@@ -16318,7 +16317,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="48" t="s">
         <v>431</v>
       </c>
@@ -16336,7 +16335,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>42370</v>
       </c>
@@ -16358,7 +16357,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>465</v>
@@ -16380,7 +16379,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <f>EDATE(A520,1)</f>
         <v>42401</v>
@@ -16405,7 +16404,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>51</v>
@@ -16427,7 +16426,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
         <v>468</v>
@@ -16449,7 +16448,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <f>EDATE(A522,1)</f>
         <v>42430</v>
@@ -16474,7 +16473,7 @@
         <v>42432</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>469</v>
@@ -16496,7 +16495,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <f>EDATE(A525,1)</f>
         <v>42461</v>
@@ -16521,7 +16520,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>406</v>
@@ -16541,7 +16540,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>55</v>
@@ -16563,7 +16562,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>473</v>
@@ -16585,7 +16584,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <f>EDATE(A527,1)</f>
         <v>42491</v>
@@ -16610,7 +16609,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <f t="shared" ref="A532:A541" si="18">EDATE(A531,1)</f>
         <v>42522</v>
@@ -16635,7 +16634,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>44</v>
@@ -16657,7 +16656,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>51</v>
@@ -16679,7 +16678,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
         <v>477</v>
@@ -16701,7 +16700,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <f>EDATE(A532,1)</f>
         <v>42552</v>
@@ -16726,7 +16725,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>479</v>
@@ -16748,7 +16747,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <f>EDATE(A536,1)</f>
         <v>42583</v>
@@ -16773,7 +16772,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>482</v>
@@ -16795,7 +16794,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <f>EDATE(A538,1)</f>
         <v>42614</v>
@@ -16820,7 +16819,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <f t="shared" si="18"/>
         <v>42644</v>
@@ -16845,7 +16844,7 @@
         <v>42411</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>484</v>
@@ -16867,7 +16866,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <f>EDATE(A541,1)</f>
         <v>42675</v>
@@ -16892,7 +16891,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <f>EDATE(A543,1)</f>
         <v>42705</v>
@@ -16917,7 +16916,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20"/>
       <c r="C545" s="13">
@@ -16935,7 +16934,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="48" t="s">
         <v>432</v>
       </c>
@@ -16953,7 +16952,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>42736</v>
       </c>
@@ -16975,7 +16974,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>44</v>
@@ -16997,7 +16996,7 @@
         <v>42768</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>302</v>
@@ -17019,7 +17018,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <f>EDATE(A547,1)</f>
         <v>42767</v>
@@ -17044,7 +17043,7 @@
         <v>42888</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20"/>
       <c r="C551" s="13">
@@ -17062,7 +17061,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <f>EDATE(A550,1)</f>
         <v>42795</v>
@@ -17085,7 +17084,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>489</v>
@@ -17107,7 +17106,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <f>EDATE(A552,1)</f>
         <v>42826</v>
@@ -17132,7 +17131,7 @@
         <v>42829</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>51</v>
@@ -17154,7 +17153,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>369</v>
@@ -17176,7 +17175,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <f>EDATE(A554,1)</f>
         <v>42856</v>
@@ -17201,7 +17200,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>44</v>
@@ -17223,7 +17222,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>453</v>
@@ -17245,7 +17244,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <f>EDATE(A557,1)</f>
         <v>42887</v>
@@ -17270,7 +17269,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>44</v>
@@ -17292,7 +17291,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>44</v>
@@ -17314,7 +17313,7 @@
         <v>42923</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>495</v>
@@ -17336,7 +17335,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <f>EDATE(A560,1)</f>
         <v>42917</v>
@@ -17361,7 +17360,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <f t="shared" ref="A565:A570" si="19">EDATE(A564,1)</f>
         <v>42948</v>
@@ -17386,7 +17385,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <f t="shared" si="19"/>
         <v>42979</v>
@@ -17411,7 +17410,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
         <v>44</v>
@@ -17433,7 +17432,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>453</v>
@@ -17455,7 +17454,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <f>EDATE(A566,1)</f>
         <v>43009</v>
@@ -17480,7 +17479,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <f t="shared" si="19"/>
         <v>43040</v>
@@ -17501,7 +17500,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <f>EDATE(A570,1)</f>
         <v>43070</v>
@@ -17526,7 +17525,7 @@
         <v>42867</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>245</v>
@@ -17548,7 +17547,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="48" t="s">
         <v>433</v>
       </c>
@@ -17566,7 +17565,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>43101</v>
       </c>
@@ -17590,7 +17589,7 @@
         <v>43313</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>76</v>
@@ -17610,7 +17609,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20" t="s">
         <v>70</v>
@@ -17632,7 +17631,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13">
@@ -17650,7 +17649,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <f>EDATE(A574,1)</f>
         <v>43132</v>
@@ -17675,7 +17674,7 @@
         <v>43345</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13">
@@ -17693,7 +17692,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <f>EDATE(A578,1)</f>
         <v>43160</v>
@@ -17718,7 +17717,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13">
@@ -17736,7 +17735,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <f>EDATE(A580,1)</f>
         <v>43191</v>
@@ -17757,7 +17756,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <f t="shared" ref="A583:A598" si="20">EDATE(A582,1)</f>
         <v>43221</v>
@@ -17780,7 +17779,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
         <v>51</v>
@@ -17802,7 +17801,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40"/>
       <c r="B585" s="20" t="s">
         <v>51</v>
@@ -17824,7 +17823,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40"/>
       <c r="B586" s="20" t="s">
         <v>499</v>
@@ -17846,7 +17845,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <f>EDATE(A583,1)</f>
         <v>43252</v>
@@ -17871,7 +17870,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
         <v>507</v>
@@ -17893,7 +17892,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <f>EDATE(A587,1)</f>
         <v>43282</v>
@@ -17918,7 +17917,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
         <v>44</v>
@@ -17940,7 +17939,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>55</v>
@@ -17962,7 +17961,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
         <v>45</v>
@@ -17984,7 +17983,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <f>EDATE(A589,1)</f>
         <v>43313</v>
@@ -18009,7 +18008,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <f t="shared" si="20"/>
         <v>43344</v>
@@ -18034,7 +18033,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40"/>
       <c r="B595" s="20" t="s">
         <v>51</v>
@@ -18056,7 +18055,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
       <c r="B596" s="20" t="s">
         <v>512</v>
@@ -18078,7 +18077,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <f>EDATE(A594,1)</f>
         <v>43374</v>
@@ -18103,7 +18102,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <f t="shared" si="20"/>
         <v>43405</v>
@@ -18128,7 +18127,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40"/>
       <c r="B599" s="20" t="s">
         <v>44</v>
@@ -18150,7 +18149,7 @@
         <v>43323</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40"/>
       <c r="B600" s="20" t="s">
         <v>44</v>
@@ -18172,7 +18171,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>512</v>
@@ -18194,7 +18193,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <f>EDATE(A598,1)</f>
         <v>43435</v>
@@ -18219,7 +18218,7 @@
         <v>43416</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40"/>
       <c r="B603" s="20" t="s">
         <v>517</v>
@@ -18241,7 +18240,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="48" t="s">
         <v>518</v>
       </c>
@@ -18259,7 +18258,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <v>43466</v>
       </c>
@@ -18281,7 +18280,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40"/>
       <c r="B606" s="20" t="s">
         <v>70</v>
@@ -18303,7 +18302,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20" t="s">
         <v>49</v>
@@ -18325,7 +18324,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
         <f>EDATE(A605,1)</f>
         <v>43497</v>
@@ -18346,7 +18345,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <f t="shared" ref="A609:A629" si="21">EDATE(A608,1)</f>
         <v>43525</v>
@@ -18371,7 +18370,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
         <v>44</v>
@@ -18393,7 +18392,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40"/>
       <c r="B611" s="20" t="s">
         <v>44</v>
@@ -18415,7 +18414,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20" t="s">
         <v>44</v>
@@ -18437,7 +18436,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40"/>
       <c r="B613" s="20" t="s">
         <v>55</v>
@@ -18459,7 +18458,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40"/>
       <c r="B614" s="20" t="s">
         <v>521</v>
@@ -18481,7 +18480,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
         <f>EDATE(A609,1)</f>
         <v>43556</v>
@@ -18506,7 +18505,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
         <f t="shared" si="21"/>
         <v>43586</v>
@@ -18531,7 +18530,7 @@
         <v>43682</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40"/>
       <c r="B617" s="20" t="s">
         <v>44</v>
@@ -18553,7 +18552,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40"/>
       <c r="B618" s="20" t="s">
         <v>76</v>
@@ -18573,7 +18572,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13">
@@ -18591,7 +18590,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
         <f>EDATE(A616,1)</f>
         <v>43617</v>
@@ -18616,7 +18615,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40"/>
       <c r="B621" s="20" t="s">
         <v>44</v>
@@ -18638,7 +18637,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40"/>
       <c r="B622" s="20" t="s">
         <v>512</v>
@@ -18660,7 +18659,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
         <f>EDATE(A620,1)</f>
         <v>43647</v>
@@ -18685,7 +18684,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
         <f t="shared" si="21"/>
         <v>43678</v>
@@ -18710,7 +18709,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40"/>
       <c r="B625" s="20" t="s">
         <v>44</v>
@@ -18732,7 +18731,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40"/>
       <c r="B626" s="20" t="s">
         <v>44</v>
@@ -18754,7 +18753,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40"/>
       <c r="B627" s="20" t="s">
         <v>139</v>
@@ -18776,7 +18775,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
         <f>EDATE(A624,1)</f>
         <v>43709</v>
@@ -18801,7 +18800,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
         <f t="shared" si="21"/>
         <v>43739</v>
@@ -18826,7 +18825,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40"/>
       <c r="B630" s="20" t="s">
         <v>55</v>
@@ -18848,7 +18847,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40"/>
       <c r="B631" s="20" t="s">
         <v>44</v>
@@ -18870,7 +18869,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40"/>
       <c r="B632" s="20" t="s">
         <v>536</v>
@@ -18892,7 +18891,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
         <f>EDATE(A629,1)</f>
         <v>43770</v>
@@ -18917,7 +18916,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40"/>
       <c r="B634" s="20" t="s">
         <v>76</v>
@@ -18937,7 +18936,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40"/>
       <c r="B635" s="20" t="s">
         <v>540</v>
@@ -18959,7 +18958,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
         <f>EDATE(A633,1)</f>
         <v>43800</v>
@@ -18984,7 +18983,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40"/>
       <c r="B637" s="20" t="s">
         <v>543</v>
@@ -19006,7 +19005,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="48" t="s">
         <v>544</v>
       </c>
@@ -19024,7 +19023,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
         <v>43831</v>
       </c>
@@ -19046,7 +19045,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40"/>
       <c r="B640" s="20" t="s">
         <v>546</v>
@@ -19066,7 +19065,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40"/>
       <c r="B641" s="20"/>
       <c r="C641" s="13">
@@ -19084,7 +19083,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
         <f>EDATE(A639,1)</f>
         <v>43862</v>
@@ -19105,7 +19104,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
         <f t="shared" ref="A643:A653" si="22">EDATE(A642,1)</f>
         <v>43891</v>
@@ -19126,7 +19125,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
         <f t="shared" si="22"/>
         <v>43922</v>
@@ -19147,7 +19146,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
         <f t="shared" si="22"/>
         <v>43952</v>
@@ -19168,7 +19167,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
         <f t="shared" si="22"/>
         <v>43983</v>
@@ -19189,7 +19188,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
         <f t="shared" si="22"/>
         <v>44013</v>
@@ -19214,7 +19213,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40"/>
       <c r="B648" s="20"/>
       <c r="C648" s="13">
@@ -19232,7 +19231,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
         <f>EDATE(A647,1)</f>
         <v>44044</v>
@@ -19253,7 +19252,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
         <f t="shared" si="22"/>
         <v>44075</v>
@@ -19274,7 +19273,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
         <f t="shared" si="22"/>
         <v>44105</v>
@@ -19295,7 +19294,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
         <f t="shared" si="22"/>
         <v>44136</v>
@@ -19316,7 +19315,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
         <f t="shared" si="22"/>
         <v>44166</v>
@@ -19341,7 +19340,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40"/>
       <c r="B654" s="20" t="s">
         <v>76</v>
@@ -19361,7 +19360,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40"/>
       <c r="B655" s="20" t="s">
         <v>552</v>
@@ -19383,7 +19382,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="48" t="s">
         <v>553</v>
       </c>
@@ -19401,7 +19400,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
         <v>44197</v>
       </c>
@@ -19421,7 +19420,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
         <f>EDATE(A657,1)</f>
         <v>44228</v>
@@ -19442,7 +19441,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
         <f t="shared" ref="A659:A667" si="23">EDATE(A658,1)</f>
         <v>44256</v>
@@ -19463,7 +19462,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
         <f t="shared" si="23"/>
         <v>44287</v>
@@ -19484,7 +19483,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
         <f t="shared" si="23"/>
         <v>44317</v>
@@ -19505,7 +19504,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
         <f t="shared" si="23"/>
         <v>44348</v>
@@ -19526,7 +19525,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
         <f t="shared" si="23"/>
         <v>44378</v>
@@ -19547,7 +19546,7 @@
       <c r="J663" s="12"/>
       <c r="K663" s="15"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
         <f t="shared" si="23"/>
         <v>44409</v>
@@ -19568,7 +19567,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
         <f t="shared" si="23"/>
         <v>44440</v>
@@ -19589,7 +19588,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
         <f t="shared" si="23"/>
         <v>44470</v>
@@ -19610,7 +19609,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
         <f t="shared" si="23"/>
         <v>44501</v>
@@ -19631,7 +19630,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
         <f>EDATE(A667,1)</f>
         <v>44531</v>
@@ -19656,7 +19655,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40"/>
       <c r="B669" s="20" t="s">
         <v>102</v>
@@ -19678,7 +19677,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40"/>
       <c r="B670" s="20" t="s">
         <v>164</v>
@@ -19700,7 +19699,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="48" t="s">
         <v>556</v>
       </c>
@@ -19718,7 +19717,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
         <v>44562</v>
       </c>
@@ -19738,7 +19737,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
         <f>EDATE(A672,1)</f>
         <v>44593</v>
@@ -19759,7 +19758,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
         <f t="shared" ref="A674:A689" si="24">EDATE(A673,1)</f>
         <v>44621</v>
@@ -19782,7 +19781,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13">
@@ -19800,7 +19799,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
         <f>EDATE(A674,1)</f>
         <v>44652</v>
@@ -19825,7 +19824,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13">
@@ -19843,7 +19842,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
         <f>EDATE(A676,1)</f>
         <v>44682</v>
@@ -19868,7 +19867,7 @@
         <v>44597</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40"/>
       <c r="B679" s="20" t="s">
         <v>44</v>
@@ -19890,7 +19889,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13">
@@ -19908,7 +19907,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
         <f>EDATE(A678,1)</f>
         <v>44713</v>
@@ -19933,7 +19932,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40"/>
       <c r="B682" s="20" t="s">
         <v>51</v>
@@ -19955,7 +19954,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40"/>
       <c r="B683" s="20" t="s">
         <v>44</v>
@@ -19977,7 +19976,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40"/>
       <c r="B684" s="20" t="s">
         <v>76</v>
@@ -19997,7 +19996,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13">
@@ -20015,7 +20014,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
         <f>EDATE(A681,1)</f>
         <v>44743</v>
@@ -20040,7 +20039,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13">
@@ -20058,7 +20057,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
         <f>EDATE(A686,1)</f>
         <v>44774</v>
@@ -20085,7 +20084,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
         <f t="shared" si="24"/>
         <v>44805</v>
@@ -20112,7 +20111,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
         <v>44835</v>
       </c>
@@ -20132,7 +20131,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
         <v>44866</v>
       </c>
@@ -20158,7 +20157,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40"/>
       <c r="B692" s="20" t="s">
         <v>569</v>
@@ -20180,7 +20179,7 @@
         <v>44883</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
         <v>44896</v>
       </c>
@@ -20206,7 +20205,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40"/>
       <c r="B694" s="20" t="s">
         <v>575</v>
@@ -20228,7 +20227,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="48" t="s">
         <v>566</v>
       </c>
@@ -20246,7 +20245,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
         <v>44927</v>
       </c>
@@ -20270,7 +20269,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40"/>
       <c r="B697" s="15" t="s">
         <v>569</v>
@@ -20292,7 +20291,7 @@
         <v>44930</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
         <v>44958</v>
       </c>
@@ -20318,7 +20317,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
         <v>44986</v>
       </c>
@@ -20344,7 +20343,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
         <v>45017</v>
       </c>
@@ -20370,7 +20369,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
         <v>45047</v>
       </c>
@@ -20396,7 +20395,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40"/>
       <c r="B702" s="20" t="s">
         <v>569</v>
@@ -20418,7 +20417,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
         <v>45078</v>
       </c>
@@ -20444,11 +20443,13 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
         <v>45108</v>
       </c>
-      <c r="B704" s="20"/>
+      <c r="B704" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="C704" s="13"/>
       <c r="D704" s="39"/>
       <c r="E704" s="9"/>
@@ -20460,9 +20461,11 @@
       <c r="H704" s="39"/>
       <c r="I704" s="9"/>
       <c r="J704" s="11"/>
-      <c r="K704" s="20"/>
-    </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K704" s="49">
+        <v>45133</v>
+      </c>
+    </row>
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
         <v>45139</v>
       </c>
@@ -20480,7 +20483,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
         <v>45170</v>
       </c>
@@ -20498,7 +20501,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
         <v>45200</v>
       </c>
@@ -20516,7 +20519,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
         <v>45231</v>
       </c>
@@ -20534,7 +20537,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
         <v>45261</v>
       </c>
@@ -20552,7 +20555,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
         <v>45292</v>
       </c>
@@ -20570,7 +20573,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
         <v>45323</v>
       </c>
@@ -20588,7 +20591,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
         <v>45352</v>
       </c>
@@ -20606,7 +20609,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
         <v>45383</v>
       </c>
@@ -20624,7 +20627,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
         <v>45413</v>
       </c>
@@ -20642,7 +20645,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
         <v>45444</v>
       </c>
@@ -20660,7 +20663,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
         <v>45474</v>
       </c>
@@ -20678,7 +20681,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
         <v>45505</v>
       </c>
@@ -20696,7 +20699,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
         <v>45536</v>
       </c>
@@ -20714,7 +20717,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
         <v>45566</v>
       </c>
@@ -20732,7 +20735,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
         <v>45597</v>
       </c>
@@ -20750,7 +20753,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
         <v>45627</v>
       </c>
@@ -20768,7 +20771,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
         <v>45658</v>
       </c>
@@ -20786,7 +20789,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
         <v>45689</v>
       </c>
@@ -20804,7 +20807,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
         <v>45717</v>
       </c>
@@ -20822,7 +20825,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
         <v>45748</v>
       </c>
@@ -20840,7 +20843,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
         <v>45778</v>
       </c>
@@ -20858,7 +20861,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
         <v>45809</v>
       </c>
@@ -20876,7 +20879,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
         <v>45839</v>
       </c>
@@ -20894,7 +20897,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
         <v>45870</v>
       </c>
@@ -20912,7 +20915,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
         <v>45901</v>
       </c>
@@ -20930,7 +20933,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
         <v>45931</v>
       </c>
@@ -20948,7 +20951,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
         <v>45962</v>
       </c>
@@ -20966,7 +20969,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
         <v>45992</v>
       </c>
@@ -20984,7 +20987,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
         <v>46023</v>
       </c>
@@ -21002,7 +21005,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
         <v>46054</v>
       </c>
@@ -21020,7 +21023,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
         <v>46082</v>
       </c>
@@ -21038,7 +21041,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
         <v>46113</v>
       </c>
@@ -21056,7 +21059,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
         <v>46143</v>
       </c>
@@ -21074,7 +21077,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40">
         <v>46174</v>
       </c>
@@ -21107,10 +21110,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21133,7 +21136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -21141,21 +21144,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="75" t="s">
         <v>33</v>
       </c>
@@ -21168,7 +21171,7 @@
       <c r="K1" s="76"/>
       <c r="L1" s="76"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -21197,7 +21200,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -21223,17 +21226,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -21254,7 +21257,7 @@
       <c r="K6" s="76"/>
       <c r="L6" s="76"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -21281,7 +21284,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -21307,7 +21310,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -21333,7 +21336,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -21359,7 +21362,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -21385,7 +21388,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -21411,7 +21414,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -21437,7 +21440,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -21463,7 +21466,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -21483,7 +21486,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -21503,7 +21506,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -21523,7 +21526,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -21544,7 +21547,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -21565,7 +21568,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -21586,7 +21589,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -21607,7 +21610,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -21628,7 +21631,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -21649,7 +21652,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -21670,7 +21673,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -21691,7 +21694,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -21712,7 +21715,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -21733,7 +21736,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -21754,7 +21757,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -21775,7 +21778,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -21796,7 +21799,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -21817,7 +21820,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -21838,7 +21841,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -21859,7 +21862,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -21880,7 +21883,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -21901,7 +21904,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -21922,7 +21925,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -21943,7 +21946,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -21952,7 +21955,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -21961,7 +21964,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -21970,7 +21973,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -21979,7 +21982,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -21988,7 +21991,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -21997,7 +22000,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -22006,7 +22009,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -22015,7 +22018,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -22024,7 +22027,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -22033,7 +22036,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -22042,7 +22045,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -22051,7 +22054,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -22060,7 +22063,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -22069,7 +22072,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -22078,7 +22081,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -22087,7 +22090,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -22096,7 +22099,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -22105,7 +22108,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -22114,7 +22117,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -22123,7 +22126,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -22132,7 +22135,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -22141,7 +22144,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -22150,7 +22153,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -22159,7 +22162,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -22168,7 +22171,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -22177,7 +22180,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -22186,7 +22189,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -22195,7 +22198,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -22204,7 +22207,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
